--- a/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.238534555143076</v>
+        <v>1.238534555143104</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -421,10 +421,10 @@
         <v>0.2936773077545922</v>
       </c>
       <c r="E2">
-        <v>0.04924535162758481</v>
+        <v>0.0492453516275706</v>
       </c>
       <c r="F2">
-        <v>6.80000664097318</v>
+        <v>6.800006640973152</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02303634450301972</v>
+        <v>0.02303634450305214</v>
       </c>
       <c r="J2">
-        <v>3.97924076576939</v>
+        <v>3.979240765769305</v>
       </c>
       <c r="K2">
         <v>2.130110377843877</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.063882255252651</v>
+        <v>1.063882255252707</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.24727690267855</v>
+        <v>0.2472769026783368</v>
       </c>
       <c r="E3">
-        <v>0.0434367841966985</v>
+        <v>0.04343678419672337</v>
       </c>
       <c r="F3">
-        <v>5.804670650964823</v>
+        <v>5.80467065096488</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02220514026485843</v>
+        <v>0.02220514026486864</v>
       </c>
       <c r="J3">
-        <v>3.381727711502535</v>
+        <v>3.381727711502506</v>
       </c>
       <c r="K3">
-        <v>1.8073351905891</v>
+        <v>1.807335190589072</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9599049431479614</v>
+        <v>0.9599049431479045</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2206491890771218</v>
+        <v>0.220649189077065</v>
       </c>
       <c r="E4">
-        <v>0.04007460941599739</v>
+        <v>0.04007460941595653</v>
       </c>
       <c r="F4">
-        <v>5.22967375840048</v>
+        <v>5.229673758400509</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02178298145653201</v>
+        <v>0.02178298145647073</v>
       </c>
       <c r="J4">
         <v>3.028939340536013</v>
       </c>
       <c r="K4">
-        <v>1.617216177765116</v>
+        <v>1.61721617776513</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9182061966644426</v>
+        <v>0.9182061966645847</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2101776112773166</v>
+        <v>0.2101776112769329</v>
       </c>
       <c r="E5">
-        <v>0.03874341113582602</v>
+        <v>0.03874341113581181</v>
       </c>
       <c r="F5">
-        <v>5.002788745329497</v>
+        <v>5.002788745329383</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02162906779888951</v>
+        <v>0.02162906779887885</v>
       </c>
       <c r="J5">
-        <v>2.887999022175322</v>
+        <v>2.887999022175251</v>
       </c>
       <c r="K5">
-        <v>1.541361549243661</v>
+        <v>1.541361549243689</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2084594614191246</v>
+        <v>0.2084594614189683</v>
       </c>
       <c r="E6">
-        <v>0.03852440735848717</v>
+        <v>0.03852440735850138</v>
       </c>
       <c r="F6">
-        <v>4.965520971622226</v>
+        <v>4.965520971622198</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02160450311627926</v>
+        <v>0.02160450311634499</v>
       </c>
       <c r="J6">
-        <v>2.864748174850646</v>
+        <v>2.864748174850632</v>
       </c>
       <c r="K6">
-        <v>1.528853383144494</v>
+        <v>1.528853383144479</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.959340030146592</v>
+        <v>0.9593400301466488</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2205065340631762</v>
+        <v>0.2205065340631336</v>
       </c>
       <c r="E7">
-        <v>0.0400565131851387</v>
+        <v>0.0400565131851458</v>
       </c>
       <c r="F7">
-        <v>5.226585779252815</v>
+        <v>5.226585779252844</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02178083706558587</v>
+        <v>0.02178083706561829</v>
       </c>
       <c r="J7">
-        <v>3.02702798359438</v>
+        <v>3.027027983594422</v>
       </c>
       <c r="K7">
-        <v>1.616187095771892</v>
+        <v>1.616187095771863</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.177540422181409</v>
+        <v>1.177540422181437</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2772322896155828</v>
+        <v>0.2772322896153554</v>
       </c>
       <c r="E8">
-        <v>0.04719162172252211</v>
+        <v>0.04719162172255054</v>
       </c>
       <c r="F8">
         <v>6.448204270083863</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.02272867587091287</v>
+        <v>0.02272867587091598</v>
       </c>
       <c r="J8">
         <v>3.769812778175464</v>
       </c>
       <c r="K8">
-        <v>2.016869967417051</v>
+        <v>2.01686996741708</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.63983463477345</v>
+        <v>1.639834634773251</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.408582892792154</v>
+        <v>0.4085828927919835</v>
       </c>
       <c r="E9">
-        <v>0.0635950124493565</v>
+        <v>0.06359501244932275</v>
       </c>
       <c r="F9">
-        <v>9.22922738437137</v>
+        <v>9.229227384371256</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02554074131904915</v>
+        <v>0.02554074131904294</v>
       </c>
       <c r="J9">
-        <v>5.381188672713819</v>
+        <v>5.381188672713762</v>
       </c>
       <c r="K9">
-        <v>2.890991980424218</v>
+        <v>2.890991980424232</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.017132725823075</v>
+        <v>2.017132725823103</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5282358084706402</v>
+        <v>0.5282358084704697</v>
       </c>
       <c r="E10">
-        <v>0.07884225078570495</v>
+        <v>0.07884225078565166</v>
       </c>
       <c r="F10">
-        <v>11.70639070481877</v>
+        <v>11.7063907048186</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.02873302958106017</v>
+        <v>0.0287330295810877</v>
       </c>
       <c r="J10">
-        <v>6.74665877671714</v>
+        <v>6.746658776717084</v>
       </c>
       <c r="K10">
-        <v>3.63644852685583</v>
+        <v>3.636448526855816</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.203078486325523</v>
+        <v>2.20307848632558</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5919335944006718</v>
+        <v>0.5919335944008992</v>
       </c>
       <c r="E11">
-        <v>0.08719950528461418</v>
+        <v>0.08719950528465148</v>
       </c>
       <c r="F11">
-        <v>13.00378231866341</v>
+        <v>13.00378231866353</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03065627036542917</v>
+        <v>0.03065627036543894</v>
       </c>
       <c r="J11">
-        <v>7.440906398026556</v>
+        <v>7.440906398026669</v>
       </c>
       <c r="K11">
-        <v>4.016959103967395</v>
+        <v>4.016959103967423</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.27640389732079</v>
+        <v>2.276403897321075</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6180062924839831</v>
+        <v>0.6180062924842389</v>
       </c>
       <c r="E12">
-        <v>0.09068144539123502</v>
+        <v>0.0906814453912439</v>
       </c>
       <c r="F12">
         <v>13.53058962929998</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.03148715826291326</v>
+        <v>0.03148715826294701</v>
       </c>
       <c r="J12">
-        <v>7.719183446645388</v>
+        <v>7.71918344664536</v>
       </c>
       <c r="K12">
-        <v>4.169741273337792</v>
+        <v>4.169741273337763</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.26046367573332</v>
+        <v>2.260463675733376</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.612290314745195</v>
+        <v>0.6122903147449108</v>
       </c>
       <c r="E13">
-        <v>0.0899148130305143</v>
+        <v>0.08991481303048765</v>
       </c>
       <c r="F13">
-        <v>13.4153068286642</v>
+        <v>13.41530682866443</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03130284074142775</v>
+        <v>0.03130284074144729</v>
       </c>
       <c r="J13">
-        <v>7.658458192073965</v>
+        <v>7.658458192073937</v>
       </c>
       <c r="K13">
         <v>4.136389067705494</v>
@@ -877,10 +877,10 @@
         <v>0.5940346280688118</v>
       </c>
       <c r="E14">
-        <v>0.08747869558198573</v>
+        <v>0.08747869558196442</v>
       </c>
       <c r="F14">
-        <v>13.04632547217125</v>
+        <v>13.04632547217113</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.0307222906793303</v>
+        <v>0.03072229067928944</v>
       </c>
       <c r="J14">
-        <v>7.463454036947468</v>
+        <v>7.463454036947439</v>
       </c>
       <c r="K14">
         <v>4.029333006537115</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.177963647654906</v>
+        <v>2.177963647654849</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0.5831311615467314</v>
       </c>
       <c r="E15">
-        <v>0.08603239937031226</v>
+        <v>0.08603239937029272</v>
       </c>
       <c r="F15">
-        <v>12.8253710071175</v>
+        <v>12.82537100711744</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03038145960374905</v>
+        <v>0.03038145960367977</v>
       </c>
       <c r="J15">
-        <v>7.346203348388343</v>
+        <v>7.346203348388286</v>
       </c>
       <c r="K15">
-        <v>3.964997658162446</v>
+        <v>3.96499765816236</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.005332237565142</v>
+        <v>2.005332237564943</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0.524304985779537</v>
       </c>
       <c r="E16">
-        <v>0.07833284116983208</v>
+        <v>0.07833284116974681</v>
       </c>
       <c r="F16">
-        <v>11.62584516723444</v>
+        <v>11.6258451672345</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.0286193453332162</v>
+        <v>0.02861934533318511</v>
       </c>
       <c r="J16">
-        <v>6.703117544016578</v>
+        <v>6.703117544016635</v>
       </c>
       <c r="K16">
-        <v>3.612616194304124</v>
+        <v>3.612616194304138</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.903579503860612</v>
+        <v>1.903579503860499</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4909356967926612</v>
+        <v>0.4909356967930592</v>
       </c>
       <c r="E17">
-        <v>0.07403466376119283</v>
+        <v>0.07403466376116263</v>
       </c>
       <c r="F17">
-        <v>10.93981274974271</v>
+        <v>10.93981274974274</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.02767797734102295</v>
+        <v>0.02767797734104338</v>
       </c>
       <c r="J17">
-        <v>6.330050157761548</v>
+        <v>6.330050157761605</v>
       </c>
       <c r="K17">
-        <v>3.408579251228417</v>
+        <v>3.408579251228431</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.846333166301918</v>
+        <v>1.846333166301804</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0.4725648656902308</v>
       </c>
       <c r="E18">
-        <v>0.07168696256306717</v>
+        <v>0.07168696256303164</v>
       </c>
       <c r="F18">
         <v>10.56039153074218</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0271780077499022</v>
+        <v>0.02717800774995016</v>
       </c>
       <c r="J18">
-        <v>6.121959084981597</v>
+        <v>6.121959084981626</v>
       </c>
       <c r="K18">
-        <v>3.294899086626017</v>
+        <v>3.294899086625989</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.82715056936209</v>
+        <v>1.827150569362175</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4664721548150794</v>
+        <v>0.466472154815051</v>
       </c>
       <c r="E19">
-        <v>0.07091100775742731</v>
+        <v>0.07091100775747705</v>
       </c>
       <c r="F19">
         <v>10.43428231489477</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.02701509198036067</v>
+        <v>0.02701509198036245</v>
       </c>
       <c r="J19">
-        <v>6.052507418112242</v>
+        <v>6.052507418112214</v>
       </c>
       <c r="K19">
-        <v>3.256978508707391</v>
+        <v>3.256978508707377</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.914273995376846</v>
+        <v>1.914273995376931</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4943993527378439</v>
+        <v>0.4943993527376449</v>
       </c>
       <c r="E20">
-        <v>0.07447871555703323</v>
+        <v>0.074478715557035</v>
       </c>
       <c r="F20">
-        <v>11.01121062215924</v>
+        <v>11.01121062215921</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.02777370487387731</v>
+        <v>0.02777370487388175</v>
       </c>
       <c r="J20">
         <v>6.369065089025668</v>
       </c>
       <c r="K20">
-        <v>3.429903451832345</v>
+        <v>3.429903451832359</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.224060516338596</v>
+        <v>2.22406051633854</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5993370210101432</v>
+        <v>0.5993370210101716</v>
       </c>
       <c r="E21">
-        <v>0.08818436151640263</v>
+        <v>0.08818436151635822</v>
       </c>
       <c r="F21">
-        <v>13.15362090023655</v>
+        <v>13.15362090023643</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.03088963650023402</v>
+        <v>0.03088963650021626</v>
       </c>
       <c r="J21">
-        <v>7.520260980204938</v>
+        <v>7.52026098020491</v>
       </c>
       <c r="K21">
         <v>4.06051230961117</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.4443132279618</v>
+        <v>2.444313227961743</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6799182566583681</v>
+        <v>0.6799182566586239</v>
       </c>
       <c r="E22">
-        <v>0.09911169849528001</v>
+        <v>0.09911169849528889</v>
       </c>
       <c r="F22">
         <v>14.77169688981405</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.03356115645256796</v>
+        <v>0.03356115645257507</v>
       </c>
       <c r="J22">
         <v>8.367133715502348</v>
@@ -1216,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6354939468344583</v>
+        <v>0.6354939468347425</v>
       </c>
       <c r="E23">
-        <v>0.0930387561563073</v>
+        <v>0.09303875615627533</v>
       </c>
       <c r="F23">
-        <v>13.88255640292988</v>
+        <v>13.88255640292971</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.03205858796757433</v>
+        <v>0.03205858796755212</v>
       </c>
       <c r="J23">
-        <v>7.90400260532823</v>
+        <v>7.904002605328145</v>
       </c>
       <c r="K23">
-        <v>4.271291041342295</v>
+        <v>4.271291041342209</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.909435171063649</v>
+        <v>1.909435171063819</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4928309405125049</v>
+        <v>0.4928309405125901</v>
       </c>
       <c r="E24">
-        <v>0.07427758276644347</v>
+        <v>0.07427758276637064</v>
       </c>
       <c r="F24">
-        <v>10.97888568821315</v>
+        <v>10.97888568821284</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.02773030028358558</v>
+        <v>0.027730300283622</v>
       </c>
       <c r="J24">
-        <v>6.351406856367532</v>
+        <v>6.351406856367475</v>
       </c>
       <c r="K24">
-        <v>3.420251676030446</v>
+        <v>3.420251676030404</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.509682285983104</v>
+        <v>1.509682285983047</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3700018124912816</v>
+        <v>0.3700018124910969</v>
       </c>
       <c r="E25">
-        <v>0.0587630161001087</v>
+        <v>0.05876301610009271</v>
       </c>
       <c r="F25">
-        <v>8.419167353381141</v>
+        <v>8.419167353381084</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.02463454634860618</v>
+        <v>0.02463454634864437</v>
       </c>
       <c r="J25">
-        <v>4.921505174576112</v>
+        <v>4.921505174576083</v>
       </c>
       <c r="K25">
-        <v>2.640981304780553</v>
+        <v>2.640981304780539</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.238534555143104</v>
+        <v>1.238534555143076</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -421,10 +421,10 @@
         <v>0.2936773077545922</v>
       </c>
       <c r="E2">
-        <v>0.0492453516275706</v>
+        <v>0.04924535162758481</v>
       </c>
       <c r="F2">
-        <v>6.800006640973152</v>
+        <v>6.80000664097318</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02303634450305214</v>
+        <v>0.02303634450301972</v>
       </c>
       <c r="J2">
-        <v>3.979240765769305</v>
+        <v>3.97924076576939</v>
       </c>
       <c r="K2">
         <v>2.130110377843877</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.063882255252707</v>
+        <v>1.063882255252651</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2472769026783368</v>
+        <v>0.24727690267855</v>
       </c>
       <c r="E3">
-        <v>0.04343678419672337</v>
+        <v>0.0434367841966985</v>
       </c>
       <c r="F3">
-        <v>5.80467065096488</v>
+        <v>5.804670650964823</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02220514026486864</v>
+        <v>0.02220514026485843</v>
       </c>
       <c r="J3">
-        <v>3.381727711502506</v>
+        <v>3.381727711502535</v>
       </c>
       <c r="K3">
-        <v>1.807335190589072</v>
+        <v>1.8073351905891</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9599049431479045</v>
+        <v>0.9599049431479614</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.220649189077065</v>
+        <v>0.2206491890771218</v>
       </c>
       <c r="E4">
-        <v>0.04007460941595653</v>
+        <v>0.04007460941599739</v>
       </c>
       <c r="F4">
-        <v>5.229673758400509</v>
+        <v>5.22967375840048</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02178298145647073</v>
+        <v>0.02178298145653201</v>
       </c>
       <c r="J4">
         <v>3.028939340536013</v>
       </c>
       <c r="K4">
-        <v>1.61721617776513</v>
+        <v>1.617216177765116</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9182061966645847</v>
+        <v>0.9182061966644426</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2101776112769329</v>
+        <v>0.2101776112773166</v>
       </c>
       <c r="E5">
-        <v>0.03874341113581181</v>
+        <v>0.03874341113582602</v>
       </c>
       <c r="F5">
-        <v>5.002788745329383</v>
+        <v>5.002788745329497</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02162906779887885</v>
+        <v>0.02162906779888951</v>
       </c>
       <c r="J5">
-        <v>2.887999022175251</v>
+        <v>2.887999022175322</v>
       </c>
       <c r="K5">
-        <v>1.541361549243689</v>
+        <v>1.541361549243661</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2084594614189683</v>
+        <v>0.2084594614191246</v>
       </c>
       <c r="E6">
-        <v>0.03852440735850138</v>
+        <v>0.03852440735848717</v>
       </c>
       <c r="F6">
-        <v>4.965520971622198</v>
+        <v>4.965520971622226</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02160450311634499</v>
+        <v>0.02160450311627926</v>
       </c>
       <c r="J6">
-        <v>2.864748174850632</v>
+        <v>2.864748174850646</v>
       </c>
       <c r="K6">
-        <v>1.528853383144479</v>
+        <v>1.528853383144494</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9593400301466488</v>
+        <v>0.959340030146592</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2205065340631336</v>
+        <v>0.2205065340631762</v>
       </c>
       <c r="E7">
-        <v>0.0400565131851458</v>
+        <v>0.0400565131851387</v>
       </c>
       <c r="F7">
-        <v>5.226585779252844</v>
+        <v>5.226585779252815</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02178083706561829</v>
+        <v>0.02178083706558587</v>
       </c>
       <c r="J7">
-        <v>3.027027983594422</v>
+        <v>3.02702798359438</v>
       </c>
       <c r="K7">
-        <v>1.616187095771863</v>
+        <v>1.616187095771892</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.177540422181437</v>
+        <v>1.177540422181409</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2772322896153554</v>
+        <v>0.2772322896155828</v>
       </c>
       <c r="E8">
-        <v>0.04719162172255054</v>
+        <v>0.04719162172252211</v>
       </c>
       <c r="F8">
         <v>6.448204270083863</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.02272867587091598</v>
+        <v>0.02272867587091287</v>
       </c>
       <c r="J8">
         <v>3.769812778175464</v>
       </c>
       <c r="K8">
-        <v>2.01686996741708</v>
+        <v>2.016869967417051</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.639834634773251</v>
+        <v>1.63983463477345</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4085828927919835</v>
+        <v>0.408582892792154</v>
       </c>
       <c r="E9">
-        <v>0.06359501244932275</v>
+        <v>0.0635950124493565</v>
       </c>
       <c r="F9">
-        <v>9.229227384371256</v>
+        <v>9.22922738437137</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02554074131904294</v>
+        <v>0.02554074131904915</v>
       </c>
       <c r="J9">
-        <v>5.381188672713762</v>
+        <v>5.381188672713819</v>
       </c>
       <c r="K9">
-        <v>2.890991980424232</v>
+        <v>2.890991980424218</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.017132725823103</v>
+        <v>2.017132725823075</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5282358084704697</v>
+        <v>0.5282358084706402</v>
       </c>
       <c r="E10">
-        <v>0.07884225078565166</v>
+        <v>0.07884225078570495</v>
       </c>
       <c r="F10">
-        <v>11.7063907048186</v>
+        <v>11.70639070481877</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0287330295810877</v>
+        <v>0.02873302958106017</v>
       </c>
       <c r="J10">
-        <v>6.746658776717084</v>
+        <v>6.74665877671714</v>
       </c>
       <c r="K10">
-        <v>3.636448526855816</v>
+        <v>3.63644852685583</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.20307848632558</v>
+        <v>2.203078486325523</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5919335944008992</v>
+        <v>0.5919335944006718</v>
       </c>
       <c r="E11">
-        <v>0.08719950528465148</v>
+        <v>0.08719950528461418</v>
       </c>
       <c r="F11">
-        <v>13.00378231866353</v>
+        <v>13.00378231866341</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03065627036543894</v>
+        <v>0.03065627036542917</v>
       </c>
       <c r="J11">
-        <v>7.440906398026669</v>
+        <v>7.440906398026556</v>
       </c>
       <c r="K11">
-        <v>4.016959103967423</v>
+        <v>4.016959103967395</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.276403897321075</v>
+        <v>2.27640389732079</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6180062924842389</v>
+        <v>0.6180062924839831</v>
       </c>
       <c r="E12">
-        <v>0.0906814453912439</v>
+        <v>0.09068144539123502</v>
       </c>
       <c r="F12">
         <v>13.53058962929998</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.03148715826294701</v>
+        <v>0.03148715826291326</v>
       </c>
       <c r="J12">
-        <v>7.71918344664536</v>
+        <v>7.719183446645388</v>
       </c>
       <c r="K12">
-        <v>4.169741273337763</v>
+        <v>4.169741273337792</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.260463675733376</v>
+        <v>2.26046367573332</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6122903147449108</v>
+        <v>0.612290314745195</v>
       </c>
       <c r="E13">
-        <v>0.08991481303048765</v>
+        <v>0.0899148130305143</v>
       </c>
       <c r="F13">
-        <v>13.41530682866443</v>
+        <v>13.4153068286642</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03130284074144729</v>
+        <v>0.03130284074142775</v>
       </c>
       <c r="J13">
-        <v>7.658458192073937</v>
+        <v>7.658458192073965</v>
       </c>
       <c r="K13">
         <v>4.136389067705494</v>
@@ -877,10 +877,10 @@
         <v>0.5940346280688118</v>
       </c>
       <c r="E14">
-        <v>0.08747869558196442</v>
+        <v>0.08747869558198573</v>
       </c>
       <c r="F14">
-        <v>13.04632547217113</v>
+        <v>13.04632547217125</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.03072229067928944</v>
+        <v>0.0307222906793303</v>
       </c>
       <c r="J14">
-        <v>7.463454036947439</v>
+        <v>7.463454036947468</v>
       </c>
       <c r="K14">
         <v>4.029333006537115</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.177963647654849</v>
+        <v>2.177963647654906</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0.5831311615467314</v>
       </c>
       <c r="E15">
-        <v>0.08603239937029272</v>
+        <v>0.08603239937031226</v>
       </c>
       <c r="F15">
-        <v>12.82537100711744</v>
+        <v>12.8253710071175</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03038145960367977</v>
+        <v>0.03038145960374905</v>
       </c>
       <c r="J15">
-        <v>7.346203348388286</v>
+        <v>7.346203348388343</v>
       </c>
       <c r="K15">
-        <v>3.96499765816236</v>
+        <v>3.964997658162446</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.005332237564943</v>
+        <v>2.005332237565142</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0.524304985779537</v>
       </c>
       <c r="E16">
-        <v>0.07833284116974681</v>
+        <v>0.07833284116983208</v>
       </c>
       <c r="F16">
-        <v>11.6258451672345</v>
+        <v>11.62584516723444</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.02861934533318511</v>
+        <v>0.0286193453332162</v>
       </c>
       <c r="J16">
-        <v>6.703117544016635</v>
+        <v>6.703117544016578</v>
       </c>
       <c r="K16">
-        <v>3.612616194304138</v>
+        <v>3.612616194304124</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.903579503860499</v>
+        <v>1.903579503860612</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4909356967930592</v>
+        <v>0.4909356967926612</v>
       </c>
       <c r="E17">
-        <v>0.07403466376116263</v>
+        <v>0.07403466376119283</v>
       </c>
       <c r="F17">
-        <v>10.93981274974274</v>
+        <v>10.93981274974271</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.02767797734104338</v>
+        <v>0.02767797734102295</v>
       </c>
       <c r="J17">
-        <v>6.330050157761605</v>
+        <v>6.330050157761548</v>
       </c>
       <c r="K17">
-        <v>3.408579251228431</v>
+        <v>3.408579251228417</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.846333166301804</v>
+        <v>1.846333166301918</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0.4725648656902308</v>
       </c>
       <c r="E18">
-        <v>0.07168696256303164</v>
+        <v>0.07168696256306717</v>
       </c>
       <c r="F18">
         <v>10.56039153074218</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.02717800774995016</v>
+        <v>0.0271780077499022</v>
       </c>
       <c r="J18">
-        <v>6.121959084981626</v>
+        <v>6.121959084981597</v>
       </c>
       <c r="K18">
-        <v>3.294899086625989</v>
+        <v>3.294899086626017</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.827150569362175</v>
+        <v>1.82715056936209</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.466472154815051</v>
+        <v>0.4664721548150794</v>
       </c>
       <c r="E19">
-        <v>0.07091100775747705</v>
+        <v>0.07091100775742731</v>
       </c>
       <c r="F19">
         <v>10.43428231489477</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.02701509198036245</v>
+        <v>0.02701509198036067</v>
       </c>
       <c r="J19">
-        <v>6.052507418112214</v>
+        <v>6.052507418112242</v>
       </c>
       <c r="K19">
-        <v>3.256978508707377</v>
+        <v>3.256978508707391</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.914273995376931</v>
+        <v>1.914273995376846</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4943993527376449</v>
+        <v>0.4943993527378439</v>
       </c>
       <c r="E20">
-        <v>0.074478715557035</v>
+        <v>0.07447871555703323</v>
       </c>
       <c r="F20">
-        <v>11.01121062215921</v>
+        <v>11.01121062215924</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.02777370487388175</v>
+        <v>0.02777370487387731</v>
       </c>
       <c r="J20">
         <v>6.369065089025668</v>
       </c>
       <c r="K20">
-        <v>3.429903451832359</v>
+        <v>3.429903451832345</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.22406051633854</v>
+        <v>2.224060516338596</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5993370210101716</v>
+        <v>0.5993370210101432</v>
       </c>
       <c r="E21">
-        <v>0.08818436151635822</v>
+        <v>0.08818436151640263</v>
       </c>
       <c r="F21">
-        <v>13.15362090023643</v>
+        <v>13.15362090023655</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.03088963650021626</v>
+        <v>0.03088963650023402</v>
       </c>
       <c r="J21">
-        <v>7.52026098020491</v>
+        <v>7.520260980204938</v>
       </c>
       <c r="K21">
         <v>4.06051230961117</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.444313227961743</v>
+        <v>2.4443132279618</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6799182566586239</v>
+        <v>0.6799182566583681</v>
       </c>
       <c r="E22">
-        <v>0.09911169849528889</v>
+        <v>0.09911169849528001</v>
       </c>
       <c r="F22">
         <v>14.77169688981405</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.03356115645257507</v>
+        <v>0.03356115645256796</v>
       </c>
       <c r="J22">
         <v>8.367133715502348</v>
@@ -1216,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6354939468347425</v>
+        <v>0.6354939468344583</v>
       </c>
       <c r="E23">
-        <v>0.09303875615627533</v>
+        <v>0.0930387561563073</v>
       </c>
       <c r="F23">
-        <v>13.88255640292971</v>
+        <v>13.88255640292988</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.03205858796755212</v>
+        <v>0.03205858796757433</v>
       </c>
       <c r="J23">
-        <v>7.904002605328145</v>
+        <v>7.90400260532823</v>
       </c>
       <c r="K23">
-        <v>4.271291041342209</v>
+        <v>4.271291041342295</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.909435171063819</v>
+        <v>1.909435171063649</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4928309405125901</v>
+        <v>0.4928309405125049</v>
       </c>
       <c r="E24">
-        <v>0.07427758276637064</v>
+        <v>0.07427758276644347</v>
       </c>
       <c r="F24">
-        <v>10.97888568821284</v>
+        <v>10.97888568821315</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.027730300283622</v>
+        <v>0.02773030028358558</v>
       </c>
       <c r="J24">
-        <v>6.351406856367475</v>
+        <v>6.351406856367532</v>
       </c>
       <c r="K24">
-        <v>3.420251676030404</v>
+        <v>3.420251676030446</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.509682285983047</v>
+        <v>1.509682285983104</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3700018124910969</v>
+        <v>0.3700018124912816</v>
       </c>
       <c r="E25">
-        <v>0.05876301610009271</v>
+        <v>0.0587630161001087</v>
       </c>
       <c r="F25">
-        <v>8.419167353381084</v>
+        <v>8.419167353381141</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.02463454634864437</v>
+        <v>0.02463454634860618</v>
       </c>
       <c r="J25">
-        <v>4.921505174576083</v>
+        <v>4.921505174576112</v>
       </c>
       <c r="K25">
-        <v>2.640981304780539</v>
+        <v>2.640981304780553</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.238534555143076</v>
+        <v>1.232820507418495</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2936773077545922</v>
+        <v>0.290710649780749</v>
       </c>
       <c r="E2">
-        <v>0.04924535162758481</v>
+        <v>0.04494059918290105</v>
       </c>
       <c r="F2">
-        <v>6.80000664097318</v>
+        <v>6.764174766612769</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007100058813875876</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02303634450301972</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.97924076576939</v>
+        <v>0.02168595148171715</v>
       </c>
       <c r="K2">
-        <v>2.130110377843877</v>
+        <v>3.923744772056864</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2.102992348269794</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.063882255252651</v>
+        <v>1.059612428797692</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.24727690267855</v>
+        <v>0.2456289972855927</v>
       </c>
       <c r="E3">
-        <v>0.0434367841966985</v>
+        <v>0.03938682941700478</v>
       </c>
       <c r="F3">
-        <v>5.804670650964823</v>
+        <v>5.787435550852649</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007294640991626059</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02220514026485843</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.381727711502535</v>
+        <v>0.02086828399096863</v>
       </c>
       <c r="K3">
-        <v>1.8073351905891</v>
+        <v>3.335113027190914</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.784753980863428</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9599049431479614</v>
+        <v>0.9564794831244399</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2206491890771218</v>
+        <v>0.2197703983243855</v>
       </c>
       <c r="E4">
-        <v>0.04007460941599739</v>
+        <v>0.03617076464336044</v>
       </c>
       <c r="F4">
-        <v>5.22967375840048</v>
+        <v>5.223167680679069</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000741426440889393</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02178298145653201</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3.028939340536013</v>
+        <v>0.02045074923530787</v>
       </c>
       <c r="K4">
-        <v>1.617216177765116</v>
+        <v>2.987501882912653</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.597263814677063</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9182061966644426</v>
+        <v>0.9151173969153206</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2101776112773166</v>
+        <v>0.2096050660544648</v>
       </c>
       <c r="E5">
-        <v>0.03874341113582602</v>
+        <v>0.0348971987426836</v>
       </c>
       <c r="F5">
-        <v>5.002788745329497</v>
+        <v>5.00052975699009</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007463205157469332</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02162906779888951</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.887999022175322</v>
+        <v>0.0202979728241659</v>
       </c>
       <c r="K5">
-        <v>1.541361549243661</v>
+        <v>2.848623060942899</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.522452481669944</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9113189826549899</v>
+        <v>0.9082857153861994</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2084594614191246</v>
+        <v>0.2079374088575889</v>
       </c>
       <c r="E6">
-        <v>0.03852440735848717</v>
+        <v>0.03468766632040676</v>
       </c>
       <c r="F6">
-        <v>4.965520971622226</v>
+        <v>4.963960832883799</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007471347403626802</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02160450311627926</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2.864748174850646</v>
+        <v>0.0202735562080063</v>
       </c>
       <c r="K6">
-        <v>1.528853383144494</v>
+        <v>2.825712122028435</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.510116142056134</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.959340030146592</v>
+        <v>0.9559191368495306</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2205065340631762</v>
+        <v>0.2196318990537378</v>
       </c>
       <c r="E7">
-        <v>0.0400565131851387</v>
+        <v>0.0361534526100229</v>
       </c>
       <c r="F7">
-        <v>5.226585779252815</v>
+        <v>5.220137431007402</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007414923473093383</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02178083706558587</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>3.02702798359438</v>
+        <v>0.02044862300449735</v>
       </c>
       <c r="K7">
-        <v>1.616187095771892</v>
+        <v>2.985618499603632</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.596248903311121</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.177540422181409</v>
+        <v>1.172335389957397</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2772322896155828</v>
+        <v>0.2747308728129951</v>
       </c>
       <c r="E8">
-        <v>0.04719162172252211</v>
+        <v>0.04297734966203848</v>
       </c>
       <c r="F8">
-        <v>6.448204270083863</v>
+        <v>6.418961250460796</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007167223812338808</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.02272867587091287</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>3.769812778175464</v>
+        <v>0.02138384189579545</v>
       </c>
       <c r="K8">
-        <v>2.016869967417051</v>
+        <v>3.71745104580026</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.991356750509254</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.63983463477345</v>
+        <v>1.630578646769436</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.408582892792154</v>
+        <v>0.4023675306990526</v>
       </c>
       <c r="E9">
-        <v>0.0635950124493565</v>
+        <v>0.05864223416100245</v>
       </c>
       <c r="F9">
-        <v>9.22922738437137</v>
+        <v>9.146591697569676</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006673438790077587</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02554074131904915</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>5.381188672713819</v>
+        <v>0.02412962611895697</v>
       </c>
       <c r="K9">
-        <v>2.890991980424218</v>
+        <v>5.303743832149792</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.852533590435016</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.017132725823075</v>
+        <v>2.004050764326166</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5282358084706402</v>
+        <v>0.51849593545478</v>
       </c>
       <c r="E10">
-        <v>0.07884225078570495</v>
+        <v>0.07315855083568401</v>
       </c>
       <c r="F10">
-        <v>11.70639070481877</v>
+        <v>11.57157716203045</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006287241425550589</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.02873302958106017</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6.74665877671714</v>
+        <v>0.02721796086430839</v>
       </c>
       <c r="K10">
-        <v>3.63644852685583</v>
+        <v>6.645202787299013</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>3.585412811152366</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.203078486325523</v>
+        <v>2.187826487092821</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5919335944006718</v>
+        <v>0.580191259865046</v>
       </c>
       <c r="E11">
-        <v>0.08719950528461418</v>
+        <v>0.0810895333930155</v>
       </c>
       <c r="F11">
-        <v>13.00378231866341</v>
+        <v>12.83876781282277</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.000609943828904956</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03065627036542917</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7.440906398026556</v>
+        <v>0.02906719461299012</v>
       </c>
       <c r="K11">
-        <v>4.016959103967395</v>
+        <v>7.325688928817954</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.958650649103305</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.27640389732079</v>
+        <v>2.260225409615657</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6180062924839831</v>
+        <v>0.6054087471966056</v>
       </c>
       <c r="E12">
-        <v>0.09068144539123502</v>
+        <v>0.08438725987390328</v>
       </c>
       <c r="F12">
-        <v>13.53058962929998</v>
+        <v>13.35256873881008</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006025574856839703</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.03148715826291326</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7.719183446645388</v>
+        <v>0.02986357958865593</v>
       </c>
       <c r="K12">
-        <v>4.169741273337792</v>
+        <v>7.598060187106</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>4.108299678694436</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.26046367573332</v>
+        <v>2.244490462817396</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.612290314745195</v>
+        <v>0.5998822569353024</v>
       </c>
       <c r="E13">
-        <v>0.0899148130305143</v>
+        <v>0.08366154960772398</v>
       </c>
       <c r="F13">
-        <v>13.4153068286642</v>
+        <v>13.24017301490358</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006041627134465433</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03130284074142775</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>7.658458192073965</v>
+        <v>0.02968704798688027</v>
       </c>
       <c r="K13">
-        <v>4.136389067705494</v>
+        <v>7.538644961099322</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>4.075643045353189</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.2090460895852</v>
+        <v>2.193720339605505</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5940346280688118</v>
+        <v>0.5822242196202012</v>
       </c>
       <c r="E14">
-        <v>0.08747869558198573</v>
+        <v>0.08135410608854166</v>
       </c>
       <c r="F14">
-        <v>13.04632547217125</v>
+        <v>12.88027794120063</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006093424338914424</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.0307222906793303</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>7.463454036947468</v>
+        <v>0.02913052927129378</v>
       </c>
       <c r="K14">
-        <v>4.029333006537115</v>
+        <v>7.347767105972025</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>3.970775741306085</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.177963647654906</v>
+        <v>2.163018990134844</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5831311615467314</v>
+        <v>0.5716725033024659</v>
       </c>
       <c r="E15">
-        <v>0.08603239937031226</v>
+        <v>0.07998325493312919</v>
       </c>
       <c r="F15">
-        <v>12.8253710071175</v>
+        <v>12.66465697336105</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006124754670870345</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03038145960374905</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>7.346203348388343</v>
+        <v>0.02880345956892505</v>
       </c>
       <c r="K15">
-        <v>3.964997658162446</v>
+        <v>7.232941037410029</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3.90772494186939</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.005332237565142</v>
+        <v>1.992380464729223</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.524304985779537</v>
+        <v>0.5146851984611942</v>
       </c>
       <c r="E16">
-        <v>0.07833284116983208</v>
+        <v>0.07267446646655884</v>
       </c>
       <c r="F16">
-        <v>11.62584516723444</v>
+        <v>11.49283076386416</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006299196679461469</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.0286193453332162</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>6.703117544016578</v>
+        <v>0.0271083935321057</v>
       </c>
       <c r="K16">
-        <v>3.612616194304124</v>
+        <v>6.602483911187733</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>3.562013732437933</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.903579503860612</v>
+        <v>1.891718390721536</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4909356967926612</v>
+        <v>0.4823215994843792</v>
       </c>
       <c r="E17">
-        <v>0.07403466376119283</v>
+        <v>0.06858726479872423</v>
       </c>
       <c r="F17">
-        <v>10.93981274974271</v>
+        <v>10.82180916719417</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006402541646688949</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.02767797734102295</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6.330050157761548</v>
+        <v>0.02619998473089691</v>
       </c>
       <c r="K17">
-        <v>3.408579251228417</v>
+        <v>6.236291172343073</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>3.361592172605285</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.846333166301918</v>
+        <v>1.83506256451642</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4725648656902308</v>
+        <v>0.4644949789247903</v>
       </c>
       <c r="E18">
-        <v>0.07168696256306717</v>
+        <v>0.06635287149089741</v>
       </c>
       <c r="F18">
-        <v>10.56039153074218</v>
+        <v>10.45046730399025</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006460922597886221</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0271780077499022</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>6.121959084981597</v>
+        <v>0.02571668108997027</v>
       </c>
       <c r="K18">
-        <v>3.294899086626017</v>
+        <v>6.031911224990182</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>3.249858657323912</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.82715056936209</v>
+        <v>1.81607444036112</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4664721548150794</v>
+        <v>0.4585814390367773</v>
       </c>
       <c r="E19">
-        <v>0.07091100775742731</v>
+        <v>0.06561408522700063</v>
       </c>
       <c r="F19">
-        <v>10.43428231489477</v>
+        <v>10.32701116903422</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006480530097689989</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.02701509198036067</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>6.052507418112242</v>
+        <v>0.0255590665267631</v>
       </c>
       <c r="K19">
-        <v>3.256978508707391</v>
+        <v>5.963680048301455</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>3.212577473310887</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.914273995376846</v>
+        <v>1.90230080568216</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4943993527378439</v>
+        <v>0.485681940959239</v>
       </c>
       <c r="E20">
-        <v>0.07447871555703323</v>
+        <v>0.06900973677503508</v>
       </c>
       <c r="F20">
-        <v>11.01121062215924</v>
+        <v>10.8916697264572</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006391655807582754</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.02777370487387731</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>6.369065089025668</v>
+        <v>0.02629245398651481</v>
       </c>
       <c r="K20">
-        <v>3.429903451832345</v>
+        <v>6.274600874850904</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>3.382546040828132</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.224060516338596</v>
+        <v>2.208547952459583</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5993370210101432</v>
+        <v>0.5873541754239966</v>
       </c>
       <c r="E21">
-        <v>0.08818436151640263</v>
+        <v>0.08202270866217809</v>
       </c>
       <c r="F21">
-        <v>13.15362090023655</v>
+        <v>12.98495484684787</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006078295634010124</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.03088963650023402</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>7.520260980204938</v>
+        <v>0.02929102445876719</v>
       </c>
       <c r="K21">
-        <v>4.06051230961117</v>
+        <v>7.403384372754829</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>4.001324331276464</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.4443132279618</v>
+        <v>2.425822843963374</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6799182566583681</v>
+        <v>0.665186738736196</v>
       </c>
       <c r="E22">
-        <v>0.09911169849528001</v>
+        <v>0.09235270454806077</v>
       </c>
       <c r="F22">
-        <v>14.77169688981405</v>
+        <v>14.56096800178864</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005856507668396673</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.03356115645256796</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>8.367133715502348</v>
+        <v>0.03184469505191956</v>
       </c>
       <c r="K22">
-        <v>4.52602459359727</v>
+        <v>8.231198331665439</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>4.45669745205376</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.324706585365561</v>
+        <v>2.307892044978701</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6354939468344583</v>
+        <v>0.6223092630700648</v>
       </c>
       <c r="E23">
-        <v>0.0930387561563073</v>
+        <v>0.08661739716296779</v>
       </c>
       <c r="F23">
-        <v>13.88255640292988</v>
+        <v>13.69557124621201</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005976941937093865</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.03205858796757433</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>7.90400260532823</v>
+        <v>0.03041038960149134</v>
       </c>
       <c r="K23">
-        <v>4.271291041342295</v>
+        <v>7.778814729030159</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>4.207689296940202</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.909435171063649</v>
+        <v>1.897512762280172</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4928309405125049</v>
+        <v>0.4841603405758121</v>
       </c>
       <c r="E24">
-        <v>0.07427758276644347</v>
+        <v>0.06881838451608857</v>
       </c>
       <c r="F24">
-        <v>10.97888568821315</v>
+        <v>10.8600414870026</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006396580448752891</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.02773030028358558</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>6.351406856367532</v>
+        <v>0.02625052941130246</v>
       </c>
       <c r="K24">
-        <v>3.420251676030446</v>
+        <v>6.257262209681016</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>3.373062093428786</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.509682285983104</v>
+        <v>1.501619684440698</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3700018124912816</v>
+        <v>0.3648830035104282</v>
       </c>
       <c r="E25">
-        <v>0.0587630161001087</v>
+        <v>0.05403197156949169</v>
       </c>
       <c r="F25">
-        <v>8.419167353381141</v>
+        <v>8.352478750773287</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006809418685852337</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.02463454634860618</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4.921505174576112</v>
+        <v>0.02324801241079655</v>
       </c>
       <c r="K25">
-        <v>2.640981304780553</v>
+        <v>4.851484287811417</v>
       </c>
       <c r="L25">
+        <v>2.606377388218988</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.232820507418495</v>
+        <v>2.302752841045958</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.290710649780749</v>
+        <v>0.3555579106371596</v>
       </c>
       <c r="E2">
-        <v>0.04494059918290105</v>
+        <v>3.518593224470152</v>
       </c>
       <c r="F2">
-        <v>6.764174766612769</v>
+        <v>7.358510206174856</v>
       </c>
       <c r="G2">
-        <v>0.0007100058813875876</v>
+        <v>0.0006750041877765118</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02168595148171715</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.923744772056864</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.102992348269794</v>
+        <v>1.459998425717316</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.8889260577516467</v>
+      </c>
+      <c r="N2">
+        <v>0.8068184336765927</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.059612428797692</v>
+        <v>1.998892403481989</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2456289972855927</v>
+        <v>0.3008968281022675</v>
       </c>
       <c r="E3">
-        <v>0.03938682941700478</v>
+        <v>2.98117095922953</v>
       </c>
       <c r="F3">
-        <v>5.787435550852649</v>
+        <v>6.23321545116184</v>
       </c>
       <c r="G3">
-        <v>0.0007294640991626059</v>
+        <v>0.000697200722499885</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02086828399096863</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3.335113027190914</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.784753980863428</v>
+        <v>1.240346747203148</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.7624761107030622</v>
+      </c>
+      <c r="N3">
+        <v>0.8957768851765913</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9564794831244399</v>
+        <v>1.819134122327767</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2197703983243855</v>
+        <v>0.2698081203656528</v>
       </c>
       <c r="E4">
-        <v>0.03617076464336044</v>
+        <v>2.668131875499185</v>
       </c>
       <c r="F4">
-        <v>5.223167680679069</v>
+        <v>5.586444526932553</v>
       </c>
       <c r="G4">
-        <v>0.000741426440889393</v>
+        <v>0.00071075318416714</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02045074923530787</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.987501882912653</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.597263814677063</v>
+        <v>1.111402628955943</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6879346124148356</v>
+      </c>
+      <c r="N4">
+        <v>0.9517510050285445</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9151173969153206</v>
+        <v>1.747288512091785</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2096050660544648</v>
+        <v>0.2576379021416102</v>
       </c>
       <c r="E5">
-        <v>0.0348971987426836</v>
+        <v>2.543865235911483</v>
       </c>
       <c r="F5">
-        <v>5.00052975699009</v>
+        <v>5.331783194782133</v>
       </c>
       <c r="G5">
-        <v>0.0007463205157469332</v>
+        <v>0.0007162802659717996</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0202979728241659</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.848623060942899</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.522452481669944</v>
+        <v>1.060042131312571</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.6581876154363471</v>
+      </c>
+      <c r="N5">
+        <v>0.9749082252820109</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9082857153861994</v>
+        <v>1.735435810609602</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2079374088575889</v>
+        <v>0.2556440838086189</v>
       </c>
       <c r="E6">
-        <v>0.03468766632040676</v>
+        <v>2.523406248157642</v>
       </c>
       <c r="F6">
-        <v>4.963960832883799</v>
+        <v>5.289979372154562</v>
       </c>
       <c r="G6">
-        <v>0.0007471347403626802</v>
+        <v>0.0007171988856728659</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0202735562080063</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2.825712122028435</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.510116142056134</v>
+        <v>1.051577695312744</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.6532823577578242</v>
+      </c>
+      <c r="N6">
+        <v>0.9787745895261146</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9559191368495306</v>
+        <v>1.818159848480661</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2196318990537378</v>
+        <v>0.2696421119533028</v>
       </c>
       <c r="E7">
-        <v>0.0361534526100229</v>
+        <v>2.666443718663089</v>
       </c>
       <c r="F7">
-        <v>5.220137431007402</v>
+        <v>5.582976580263505</v>
       </c>
       <c r="G7">
-        <v>0.0007414923473093383</v>
+        <v>0.0007108276795037785</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02044862300449735</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>2.985618499603632</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1.596248903311121</v>
+        <v>1.110705517800142</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.687531061479973</v>
+      </c>
+      <c r="N7">
+        <v>0.9520618980727553</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.172335389957397</v>
+        <v>2.196361788924492</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2747308728129951</v>
+        <v>0.3361132484139802</v>
       </c>
       <c r="E8">
-        <v>0.04297734966203848</v>
+        <v>3.329115612026953</v>
       </c>
       <c r="F8">
-        <v>6.418961250460796</v>
+        <v>6.95984200458193</v>
       </c>
       <c r="G8">
-        <v>0.0007167223812338808</v>
+        <v>0.0006826894304534648</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02138384189579545</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>3.71745104580026</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1.991356750509254</v>
+        <v>1.382826663841143</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.844581345538657</v>
+      </c>
+      <c r="N8">
+        <v>0.837215802030892</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.630578646769436</v>
+        <v>3.010715287015216</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4023675306990526</v>
+        <v>0.4939097182552814</v>
       </c>
       <c r="E9">
-        <v>0.05864223416100245</v>
+        <v>4.824651017767962</v>
       </c>
       <c r="F9">
-        <v>9.146591697569676</v>
+        <v>10.14907373252154</v>
       </c>
       <c r="G9">
-        <v>0.0006673438790077587</v>
+        <v>0.00062541778957346</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02412962611895697</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>5.303743832149792</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>2.852533590435016</v>
+        <v>1.982464953539562</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.186422577966283</v>
+      </c>
+      <c r="N9">
+        <v>0.6221433804622869</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.004050764326166</v>
+        <v>3.693122923138219</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.51849593545478</v>
+        <v>0.6442081271902396</v>
       </c>
       <c r="E10">
-        <v>0.07315855083568401</v>
+        <v>6.18359412154436</v>
       </c>
       <c r="F10">
-        <v>11.57157716203045</v>
+        <v>13.1000580533024</v>
       </c>
       <c r="G10">
-        <v>0.0006287241425550589</v>
+        <v>0.0005787287464015963</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02721796086430839</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>6.645202787299013</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>3.585412811152366</v>
+        <v>2.505235089244479</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.478386647209362</v>
+      </c>
+      <c r="N10">
+        <v>0.4685559309463154</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.187826487092821</v>
+        <v>4.039024114599044</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.580191259865046</v>
+        <v>0.728203288159591</v>
       </c>
       <c r="E11">
-        <v>0.0810895333930155</v>
+        <v>6.924173798683938</v>
       </c>
       <c r="F11">
-        <v>12.83876781282277</v>
+        <v>14.71575421131467</v>
       </c>
       <c r="G11">
-        <v>0.000609943828904956</v>
+        <v>0.0005549541653329324</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02906719461299012</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>7.325688928817954</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>3.958650649103305</v>
+        <v>2.779805223299263</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.628989156660808</v>
+      </c>
+      <c r="N11">
+        <v>0.3986298673862511</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.260225409615657</v>
+        <v>4.178030688314152</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6054087471966056</v>
+        <v>0.7637176084890314</v>
       </c>
       <c r="E12">
-        <v>0.08438725987390328</v>
+        <v>7.234085486777872</v>
       </c>
       <c r="F12">
-        <v>13.35256873881008</v>
+        <v>15.39185173399306</v>
       </c>
       <c r="G12">
-        <v>0.0006025574856839703</v>
+        <v>0.0005453137646882573</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02986357958865593</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>7.598060187106</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>4.108299678694436</v>
+        <v>2.892373004153939</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.690117827112701</v>
+      </c>
+      <c r="N12">
+        <v>0.3719354714625854</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.244490462817396</v>
+        <v>4.147661795043746</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5998822569353024</v>
+        <v>0.7558657769385775</v>
       </c>
       <c r="E13">
-        <v>0.08366154960772398</v>
+        <v>7.165717598377285</v>
       </c>
       <c r="F13">
-        <v>13.24017301490358</v>
+        <v>15.24273328099611</v>
       </c>
       <c r="G13">
-        <v>0.0006041627134465433</v>
+        <v>0.0005474254847991124</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02968704798688027</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>7.538644961099322</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>4.075643045353189</v>
+        <v>2.867661555435035</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.676730689436425</v>
+      </c>
+      <c r="N13">
+        <v>0.3776998826296748</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.193720339605505</v>
+        <v>4.050273873892479</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5822242196202012</v>
+        <v>0.7310376428085306</v>
       </c>
       <c r="E14">
-        <v>0.08135410608854166</v>
+        <v>6.948972803218595</v>
       </c>
       <c r="F14">
-        <v>12.88027794120063</v>
+        <v>14.7698660066518</v>
       </c>
       <c r="G14">
-        <v>0.0006093424338914424</v>
+        <v>0.0005541762665386116</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02913052927129378</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>7.347767105972025</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>3.970775741306085</v>
+        <v>2.788864577818202</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.63392247317995</v>
+      </c>
+      <c r="N14">
+        <v>0.3964399669841958</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.163018990134844</v>
+        <v>3.991792796680443</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5716725033024659</v>
+        <v>0.7163774869523536</v>
       </c>
       <c r="E15">
-        <v>0.07998325493312919</v>
+        <v>6.820577773405006</v>
       </c>
       <c r="F15">
-        <v>12.66465697336105</v>
+        <v>14.48969607145995</v>
       </c>
       <c r="G15">
-        <v>0.0006124754670870345</v>
+        <v>0.0005582161804564283</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02880345956892505</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>7.232941037410029</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>3.90772494186939</v>
+        <v>2.741864192315745</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.608302577633353</v>
+      </c>
+      <c r="N15">
+        <v>0.407881186106821</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.992380464729223</v>
+        <v>3.671433616604475</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5146851984611942</v>
+        <v>0.6391329207604883</v>
       </c>
       <c r="E16">
-        <v>0.07267446646655884</v>
+        <v>6.138467217342992</v>
       </c>
       <c r="F16">
-        <v>11.49283076386416</v>
+        <v>13.00167867812826</v>
       </c>
       <c r="G16">
-        <v>0.0006299196679461469</v>
+        <v>0.0005802127925253664</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0271083935321057</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>6.602483911187733</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>3.562013732437933</v>
+        <v>2.488258292113017</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.469008610848107</v>
+      </c>
+      <c r="N16">
+        <v>0.4731109825782023</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.891718390721536</v>
+        <v>3.485476898358002</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4823215994843792</v>
+        <v>0.5964737639450277</v>
       </c>
       <c r="E17">
-        <v>0.06858726479872423</v>
+        <v>5.757248431549954</v>
       </c>
       <c r="F17">
-        <v>10.82180916719417</v>
+        <v>12.17131712343718</v>
       </c>
       <c r="G17">
-        <v>0.0006402541646688949</v>
+        <v>0.0005929215248077495</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02619998473089691</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>6.236291172343073</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>3.361592172605285</v>
+        <v>2.343757149412824</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.388891104061599</v>
+      </c>
+      <c r="N17">
+        <v>0.5130155342729585</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.83506256451642</v>
+        <v>3.381615970902772</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4644949789247903</v>
+        <v>0.5732854699390089</v>
       </c>
       <c r="E18">
-        <v>0.06635287149089741</v>
+        <v>5.548504474588839</v>
       </c>
       <c r="F18">
-        <v>10.45046730399025</v>
+        <v>11.71734860889498</v>
       </c>
       <c r="G18">
-        <v>0.0006460922597886221</v>
+        <v>0.0006000154547569445</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02571668108997027</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>6.031911224990182</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>3.249858657323912</v>
+        <v>2.263827735058499</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.344355511167478</v>
+      </c>
+      <c r="N18">
+        <v>0.5359798604458281</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.81607444036112</v>
+        <v>3.346923815304535</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4585814390367773</v>
+        <v>0.5656375494014299</v>
       </c>
       <c r="E19">
-        <v>0.06561408522700063</v>
+        <v>5.479405477683628</v>
       </c>
       <c r="F19">
-        <v>10.32701116903422</v>
+        <v>11.56721382833399</v>
       </c>
       <c r="G19">
-        <v>0.0006480530097689989</v>
+        <v>0.000602385581792042</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0255590665267631</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>5.963680048301455</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>3.212577473310887</v>
+        <v>2.237246809349671</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.329511503241818</v>
+      </c>
+      <c r="N19">
+        <v>0.5437609988059298</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.90230080568216</v>
+        <v>3.504937116831911</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.485681940959239</v>
+        <v>0.6008682192320407</v>
       </c>
       <c r="E20">
-        <v>0.06900973677503508</v>
+        <v>5.796682722205873</v>
       </c>
       <c r="F20">
-        <v>10.8916697264572</v>
+        <v>12.25714127137468</v>
       </c>
       <c r="G20">
-        <v>0.0006391655807582754</v>
+        <v>0.0005915923346075181</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02629245398651481</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>6.274600874850904</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>3.382546040828132</v>
+        <v>2.358793613276248</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.397252058136559</v>
+      </c>
+      <c r="N20">
+        <v>0.5087673024130357</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.208547952459583</v>
+        <v>4.078625689939372</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5873541754239966</v>
+        <v>0.7382113779370911</v>
       </c>
       <c r="E21">
-        <v>0.08202270866217809</v>
+        <v>7.011687280736226</v>
       </c>
       <c r="F21">
-        <v>12.98495484684787</v>
+        <v>14.90670381871189</v>
       </c>
       <c r="G21">
-        <v>0.0006078295634010124</v>
+        <v>0.0005522141049559122</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02929102445876719</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>7.403384372754829</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>4.001324331276464</v>
+        <v>2.811734963048565</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.646366073262996</v>
+      </c>
+      <c r="N21">
+        <v>0.3909441055948626</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.425822843963374</v>
+        <v>4.50422418659042</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.665186738736196</v>
+        <v>0.8516377604585443</v>
       </c>
       <c r="E22">
-        <v>0.09235270454806077</v>
+        <v>7.994324736705124</v>
       </c>
       <c r="F22">
-        <v>14.56096800178864</v>
+        <v>17.04762196618549</v>
       </c>
       <c r="G22">
-        <v>0.0005856507668396673</v>
+        <v>0.0005223806437182343</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03184469505191956</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>8.231198331665439</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>4.45669745205376</v>
+        <v>3.162401014997101</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.83516153435599</v>
+      </c>
+      <c r="N22">
+        <v>0.3123641460358969</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.307892044978701</v>
+        <v>4.270620215576855</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6223092630700648</v>
+        <v>0.7879912993069809</v>
       </c>
       <c r="E23">
-        <v>0.08661739716296779</v>
+        <v>7.444927808156194</v>
       </c>
       <c r="F23">
-        <v>13.69557124621201</v>
+        <v>15.85155579509058</v>
       </c>
       <c r="G23">
-        <v>0.0005976941937093865</v>
+        <v>0.0005388537025378247</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03041038960149134</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>7.778814729030159</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>4.207689296940202</v>
+        <v>2.968142670894309</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.731049580112071</v>
+      </c>
+      <c r="N23">
+        <v>0.3545919056124494</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.897512762280172</v>
+        <v>3.496129837646663</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4841603405758121</v>
+        <v>0.5988774097710916</v>
       </c>
       <c r="E24">
-        <v>0.06881838451608857</v>
+        <v>5.778822728095804</v>
       </c>
       <c r="F24">
-        <v>10.8600414870026</v>
+        <v>12.21826875082598</v>
       </c>
       <c r="G24">
-        <v>0.0006396580448752891</v>
+        <v>0.0005921939067193699</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02625052941130246</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>6.257262209681016</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>3.373062093428786</v>
+        <v>2.351986029761861</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.39346741495396</v>
+      </c>
+      <c r="N24">
+        <v>0.5106878454285568</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.501619684440698</v>
+        <v>2.77946376713686</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3648830035104282</v>
+        <v>0.446926840342428</v>
       </c>
       <c r="E25">
-        <v>0.05403197156949169</v>
+        <v>4.388336038291101</v>
       </c>
       <c r="F25">
-        <v>8.352478750773287</v>
+        <v>9.209955396019183</v>
       </c>
       <c r="G25">
-        <v>0.0006809418685852337</v>
+        <v>0.0006413927497157523</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02324801241079655</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>4.851484287811417</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2.606377388218988</v>
+        <v>1.809908631298583</v>
       </c>
       <c r="M25">
+        <v>1.088733730697868</v>
+      </c>
+      <c r="N25">
+        <v>0.6793579091773392</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.302752841045958</v>
+        <v>1.264445632726648</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3555579106371596</v>
+        <v>0.007443271909423288</v>
       </c>
       <c r="E2">
-        <v>3.518593224470152</v>
+        <v>0.02765629306552331</v>
       </c>
       <c r="F2">
-        <v>7.358510206174856</v>
+        <v>2.660030129866669</v>
       </c>
       <c r="G2">
-        <v>0.0006750041877765118</v>
+        <v>0.0008499648114065795</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.07403037207429319</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.416265698403095</v>
       </c>
       <c r="L2">
-        <v>1.459998425717316</v>
+        <v>0.4322749630847511</v>
       </c>
       <c r="M2">
-        <v>0.8889260577516467</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8068184336765927</v>
+        <v>2.313512580976081</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.998892403481989</v>
+        <v>1.141480240302798</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3008968281022675</v>
+        <v>0.006270652229485307</v>
       </c>
       <c r="E3">
-        <v>2.98117095922953</v>
+        <v>0.02680372511360574</v>
       </c>
       <c r="F3">
-        <v>6.23321545116184</v>
+        <v>2.526957892983361</v>
       </c>
       <c r="G3">
-        <v>0.000697200722499885</v>
+        <v>0.000857908514206529</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.07396384135727452</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2.115776032890778</v>
       </c>
       <c r="L3">
-        <v>1.240346747203148</v>
+        <v>0.3826062523970251</v>
       </c>
       <c r="M3">
-        <v>0.7624761107030622</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8957768851765913</v>
+        <v>2.333234660487207</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.819134122327767</v>
+        <v>1.067654866498259</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2698081203656528</v>
+        <v>0.005585832900155907</v>
       </c>
       <c r="E4">
-        <v>2.668131875499185</v>
+        <v>0.02629222277204679</v>
       </c>
       <c r="F4">
-        <v>5.586444526932553</v>
+        <v>2.449235666323546</v>
       </c>
       <c r="G4">
-        <v>0.00071075318416714</v>
+        <v>0.000862929091211197</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07393905955918356</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.934688432141598</v>
       </c>
       <c r="L4">
-        <v>1.111402628955943</v>
+        <v>0.3527456291416087</v>
       </c>
       <c r="M4">
-        <v>0.6879346124148356</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9517510050285445</v>
+        <v>2.347458387174768</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.747288512091785</v>
+        <v>1.037956930804228</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2576379021416102</v>
+        <v>0.005314270472178251</v>
       </c>
       <c r="E5">
-        <v>2.543865235911483</v>
+        <v>0.0260862268825961</v>
       </c>
       <c r="F5">
-        <v>5.331783194782133</v>
+        <v>2.418495829658056</v>
       </c>
       <c r="G5">
-        <v>0.0007162802659717996</v>
+        <v>0.0008650122516649151</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07393270105574556</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.861656929878251</v>
       </c>
       <c r="L5">
-        <v>1.060042131312571</v>
+        <v>0.3407209855063797</v>
       </c>
       <c r="M5">
-        <v>0.6581876154363471</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9749082252820109</v>
+        <v>2.353763748577748</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.735435810609602</v>
+        <v>1.033047981222325</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2556440838086189</v>
+        <v>0.005269594427385726</v>
       </c>
       <c r="E6">
-        <v>2.523406248157642</v>
+        <v>0.02605215358722646</v>
       </c>
       <c r="F6">
-        <v>5.289979372154562</v>
+        <v>2.413445897823507</v>
       </c>
       <c r="G6">
-        <v>0.0007171988856728659</v>
+        <v>0.0008653604426990338</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07393186291290821</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.849573543931996</v>
       </c>
       <c r="L6">
-        <v>1.051577695312744</v>
+        <v>0.3387325381750657</v>
       </c>
       <c r="M6">
-        <v>0.6532823577578242</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9787745895261146</v>
+        <v>2.354840867688779</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.818159848480661</v>
+        <v>1.067252829157212</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2696421119533028</v>
+        <v>0.00558214179461558</v>
       </c>
       <c r="E7">
-        <v>2.666443718663089</v>
+        <v>0.02628943544710483</v>
       </c>
       <c r="F7">
-        <v>5.582976580263505</v>
+        <v>2.448817410058055</v>
       </c>
       <c r="G7">
-        <v>0.0007108276795037785</v>
+        <v>0.0008629570330611948</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07393895903741665</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.933700534633374</v>
       </c>
       <c r="L7">
-        <v>1.110705517800142</v>
+        <v>0.3525828988285156</v>
       </c>
       <c r="M7">
-        <v>0.687531061479973</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9520618980727553</v>
+        <v>2.347541390857003</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.196361788924492</v>
+        <v>1.221677502918396</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3361132484139802</v>
+        <v>0.007030805823294628</v>
       </c>
       <c r="E8">
-        <v>3.329115612026953</v>
+        <v>0.02735948289582213</v>
       </c>
       <c r="F8">
-        <v>6.95984200458193</v>
+        <v>2.613276382121427</v>
       </c>
       <c r="G8">
-        <v>0.0006826894304534648</v>
+        <v>0.000852674876210242</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.07400390699382386</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.31188846106204</v>
       </c>
       <c r="L8">
-        <v>1.382826663841143</v>
+        <v>0.4150070237952548</v>
       </c>
       <c r="M8">
-        <v>0.844581345538657</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.837215802030892</v>
+        <v>2.319859805812413</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.010715287015216</v>
+        <v>1.539526732645697</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4939097182552814</v>
+        <v>0.01021852794261235</v>
       </c>
       <c r="E9">
-        <v>4.824651017767962</v>
+        <v>0.02958167987886506</v>
       </c>
       <c r="F9">
-        <v>10.14907373252154</v>
+        <v>2.970826197769043</v>
       </c>
       <c r="G9">
-        <v>0.00062541778957346</v>
+        <v>0.0008335858401629018</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.07427405427754064</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3.085337966118914</v>
       </c>
       <c r="L9">
-        <v>1.982464953539562</v>
+        <v>0.5432707216630064</v>
       </c>
       <c r="M9">
-        <v>1.186422577966283</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6221433804622869</v>
+        <v>2.283464532234319</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.693122923138219</v>
+        <v>1.784862471198352</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6442081271902396</v>
+        <v>0.01287964982437728</v>
       </c>
       <c r="E10">
-        <v>6.18359412154436</v>
+        <v>0.03133568560897437</v>
       </c>
       <c r="F10">
-        <v>13.1000580533024</v>
+        <v>3.260166670556544</v>
       </c>
       <c r="G10">
-        <v>0.0005787287464015963</v>
+        <v>0.0008201223134274827</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.07458399787230308</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.680310656993015</v>
       </c>
       <c r="L10">
-        <v>2.505235089244479</v>
+        <v>0.6423134983877219</v>
       </c>
       <c r="M10">
-        <v>1.478386647209362</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4685559309463154</v>
+        <v>2.269339372154946</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.039024114599044</v>
+        <v>1.899701358700156</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.728203288159591</v>
+        <v>0.01418791540694997</v>
       </c>
       <c r="E11">
-        <v>6.924173798683938</v>
+        <v>0.03217210553053196</v>
       </c>
       <c r="F11">
-        <v>14.71575421131467</v>
+        <v>3.398914162132428</v>
       </c>
       <c r="G11">
-        <v>0.0005549541653329324</v>
+        <v>0.0008140959117257358</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.07475569873663535</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.958631234401707</v>
       </c>
       <c r="L11">
-        <v>2.779805223299263</v>
+        <v>0.6887283282057126</v>
       </c>
       <c r="M11">
-        <v>1.628989156660808</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3986298673862511</v>
+        <v>2.26608493191236</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.178030688314152</v>
+        <v>1.943714945444668</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.7637176084890314</v>
+        <v>0.01470015718035</v>
       </c>
       <c r="E12">
-        <v>7.234085486777872</v>
+        <v>0.03249556705253376</v>
       </c>
       <c r="F12">
-        <v>15.39185173399306</v>
+        <v>3.452604440186747</v>
       </c>
       <c r="G12">
-        <v>0.0005453137646882573</v>
+        <v>0.0008118258220231221</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.07482577631063503</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4.065300532202968</v>
       </c>
       <c r="L12">
-        <v>2.892373004153939</v>
+        <v>0.7065295321574752</v>
       </c>
       <c r="M12">
-        <v>1.690117827112701</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3719354714625854</v>
+        <v>2.265349682531749</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.147661795043746</v>
+        <v>1.934211359611965</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.7558657769385775</v>
+        <v>0.01458903960837077</v>
       </c>
       <c r="E13">
-        <v>7.165717598377285</v>
+        <v>0.03242558378336557</v>
       </c>
       <c r="F13">
-        <v>15.24273328099611</v>
+        <v>3.440988001906305</v>
       </c>
       <c r="G13">
-        <v>0.0005474254847991124</v>
+        <v>0.0008123142304465751</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.07481044759702815</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>4.042267692327869</v>
       </c>
       <c r="L13">
-        <v>2.867661555435035</v>
+        <v>0.7026852161485522</v>
       </c>
       <c r="M13">
-        <v>1.676730689436425</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3776998826296748</v>
+        <v>2.265485214662121</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.050273873892479</v>
+        <v>1.903311452869303</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.7310376428085306</v>
+        <v>0.01422970318151329</v>
       </c>
       <c r="E14">
-        <v>6.948972803218595</v>
+        <v>0.03219857463502862</v>
       </c>
       <c r="F14">
-        <v>14.7698660066518</v>
+        <v>3.403307485755562</v>
       </c>
       <c r="G14">
-        <v>0.0005541762665386116</v>
+        <v>0.0008139089231115488</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.07476135865619904</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.967380357353477</v>
       </c>
       <c r="L14">
-        <v>2.788864577818202</v>
+        <v>0.6901881556977969</v>
       </c>
       <c r="M14">
-        <v>1.63392247317995</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3964399669841958</v>
+        <v>2.266014226387966</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.991792796680443</v>
+        <v>1.884454885881013</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.7163774869523536</v>
+        <v>0.01401188037877432</v>
       </c>
       <c r="E15">
-        <v>6.820577773405006</v>
+        <v>0.0320604393807491</v>
       </c>
       <c r="F15">
-        <v>14.48969607145995</v>
+        <v>3.380380752479198</v>
       </c>
       <c r="G15">
-        <v>0.0005582161804564283</v>
+        <v>0.0008148872106109305</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.07473196972582441</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3.921681275222113</v>
       </c>
       <c r="L15">
-        <v>2.741864192315745</v>
+        <v>0.6825635667166239</v>
       </c>
       <c r="M15">
-        <v>1.608302577633353</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.407881186106821</v>
+        <v>2.266404305670747</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.671433616604475</v>
+        <v>1.777427669825187</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6391329207604883</v>
+        <v>0.01279634638627414</v>
       </c>
       <c r="E16">
-        <v>6.138467217342992</v>
+        <v>0.03128189635096668</v>
       </c>
       <c r="F16">
-        <v>13.00167867812826</v>
+        <v>3.251252937206857</v>
       </c>
       <c r="G16">
-        <v>0.0005802127925253664</v>
+        <v>0.0008205179511006815</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.07457344747401429</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.662290334219165</v>
       </c>
       <c r="L16">
-        <v>2.488258292113017</v>
+        <v>0.6393099770403694</v>
       </c>
       <c r="M16">
-        <v>1.469008610848107</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4731109825782023</v>
+        <v>2.26961927809603</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.485476898358002</v>
+        <v>1.71264004391395</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5964737639450277</v>
+        <v>0.01207753705222814</v>
       </c>
       <c r="E17">
-        <v>5.757248431549954</v>
+        <v>0.03081494284295783</v>
       </c>
       <c r="F17">
-        <v>12.17131712343718</v>
+        <v>3.173946688434</v>
       </c>
       <c r="G17">
-        <v>0.0005929215248077495</v>
+        <v>0.0008239959302107929</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.0744844916146592</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.505242517392617</v>
       </c>
       <c r="L17">
-        <v>2.343757149412824</v>
+        <v>0.6131434303978835</v>
       </c>
       <c r="M17">
-        <v>1.388891104061599</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5130155342729585</v>
+        <v>2.272431575758944</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.381615970902772</v>
+        <v>1.675676301356816</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5732854699390089</v>
+        <v>0.01167310546910372</v>
       </c>
       <c r="E18">
-        <v>5.548504474588839</v>
+        <v>0.03054990797699109</v>
       </c>
       <c r="F18">
-        <v>11.71734860889498</v>
+        <v>3.130144546205685</v>
       </c>
       <c r="G18">
-        <v>0.0006000154547569445</v>
+        <v>0.0008260057583661274</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.07443617302472028</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3.415622706281567</v>
       </c>
       <c r="L18">
-        <v>2.263827735058499</v>
+        <v>0.5982191653719724</v>
       </c>
       <c r="M18">
-        <v>1.344355511167478</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5359798604458281</v>
+        <v>2.274344894902114</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.346923815304535</v>
+        <v>1.663210838329036</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5656375494014299</v>
+        <v>0.01153764073948693</v>
       </c>
       <c r="E19">
-        <v>5.479405477683628</v>
+        <v>0.03046074700914136</v>
       </c>
       <c r="F19">
-        <v>11.56721382833399</v>
+        <v>3.115424073442398</v>
       </c>
       <c r="G19">
-        <v>0.000602385581792042</v>
+        <v>0.0008266879256759665</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.07442028400995637</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3.385395954305864</v>
       </c>
       <c r="L19">
-        <v>2.237246809349671</v>
+        <v>0.5931868723572506</v>
       </c>
       <c r="M19">
-        <v>1.329511503241818</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5437609988059298</v>
+        <v>2.275042331555667</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.504937116831911</v>
+        <v>1.719505284187989</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.6008682192320407</v>
+        <v>0.01215310430185568</v>
       </c>
       <c r="E20">
-        <v>5.796682722205873</v>
+        <v>0.03086427593699259</v>
       </c>
       <c r="F20">
-        <v>12.25714127137468</v>
+        <v>3.182106657333435</v>
       </c>
       <c r="G20">
-        <v>0.0005915923346075181</v>
+        <v>0.0008236247366287132</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.07449366216672271</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3.521885858392181</v>
       </c>
       <c r="L20">
-        <v>2.358793613276248</v>
+        <v>0.6159156571575437</v>
       </c>
       <c r="M20">
-        <v>1.397252058136559</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5087673024130357</v>
+        <v>2.272101308907125</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.078625689939372</v>
+        <v>1.912372689148526</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.7382113779370911</v>
+        <v>0.0143347680719792</v>
       </c>
       <c r="E21">
-        <v>7.011687280736226</v>
+        <v>0.0322650597878269</v>
       </c>
       <c r="F21">
-        <v>14.90670381871189</v>
+        <v>3.414342897977605</v>
       </c>
       <c r="G21">
-        <v>0.0005522141049559122</v>
+        <v>0.0008134402165128116</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.07477563438077084</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.989340489014069</v>
       </c>
       <c r="L21">
-        <v>2.811734963048565</v>
+        <v>0.6938524897856837</v>
       </c>
       <c r="M21">
-        <v>1.646366073262996</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3909441055948626</v>
+        <v>2.265844998946818</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.50422418659042</v>
+        <v>2.041525675611638</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.8516377604585443</v>
+        <v>0.01586030457679044</v>
       </c>
       <c r="E22">
-        <v>7.994324736705124</v>
+        <v>0.03322045076914293</v>
       </c>
       <c r="F22">
-        <v>17.04762196618549</v>
+        <v>3.572892402449071</v>
       </c>
       <c r="G22">
-        <v>0.0005223806437182343</v>
+        <v>0.0008068526850143652</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.07498977476182045</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>4.302378382221718</v>
       </c>
       <c r="L22">
-        <v>3.162401014997101</v>
+        <v>0.7461159176154695</v>
       </c>
       <c r="M22">
-        <v>1.83516153435599</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3123641460358969</v>
+        <v>2.264676522179343</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.270620215576855</v>
+        <v>1.972288237171512</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7879912993069809</v>
+        <v>0.01503594751885728</v>
       </c>
       <c r="E23">
-        <v>7.444927808156194</v>
+        <v>0.03270644942811263</v>
       </c>
       <c r="F23">
-        <v>15.85155579509058</v>
+        <v>3.487606919355443</v>
       </c>
       <c r="G23">
-        <v>0.0005388537025378247</v>
+        <v>0.0008103630669951735</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.07487251343716084</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>4.134552541359142</v>
       </c>
       <c r="L23">
-        <v>2.968142670894309</v>
+        <v>0.7180898671076079</v>
       </c>
       <c r="M23">
-        <v>1.731049580112071</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3545919056124494</v>
+        <v>2.265018063168455</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.496129837646663</v>
+        <v>1.716400630500488</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5988774097710916</v>
+        <v>0.01211891307629998</v>
       </c>
       <c r="E24">
-        <v>5.778822728095804</v>
+        <v>0.0308419618710154</v>
       </c>
       <c r="F24">
-        <v>12.21826875082598</v>
+        <v>3.178415544199282</v>
       </c>
       <c r="G24">
-        <v>0.0005921939067193699</v>
+        <v>0.0008237925209951426</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.07448950741344795</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>3.514359332751951</v>
       </c>
       <c r="L24">
-        <v>2.351986029761861</v>
+        <v>0.6146619642378681</v>
       </c>
       <c r="M24">
-        <v>1.39346741495396</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5106878454285568</v>
+        <v>2.27224970209555</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.77946376713686</v>
+        <v>1.451673057044161</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.446926840342428</v>
+        <v>0.009308752527378061</v>
       </c>
       <c r="E25">
-        <v>4.388336038291101</v>
+        <v>0.02896288564696414</v>
       </c>
       <c r="F25">
-        <v>9.209955396019183</v>
+        <v>2.869833956359031</v>
       </c>
       <c r="G25">
-        <v>0.0006413927497157523</v>
+        <v>0.0008386440806564992</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.07418336329782083</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.871981532473171</v>
       </c>
       <c r="L25">
-        <v>1.809908631298583</v>
+        <v>0.5078251625652257</v>
       </c>
       <c r="M25">
-        <v>1.088733730697868</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6793579091773392</v>
+        <v>2.291229475954381</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.264445632726648</v>
+        <v>1.668968642179323</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.007443271909423288</v>
+        <v>0.009111524370560176</v>
       </c>
       <c r="E2">
-        <v>0.02765629306552331</v>
+        <v>0.06081283538677518</v>
       </c>
       <c r="F2">
-        <v>2.660030129866669</v>
+        <v>4.17909545117071</v>
       </c>
       <c r="G2">
-        <v>0.0008499648114065795</v>
+        <v>0.002634859792585293</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07403037207429319</v>
+        <v>0.1478672292744827</v>
       </c>
       <c r="K2">
-        <v>2.416265698403095</v>
+        <v>1.868411174977524</v>
       </c>
       <c r="L2">
-        <v>0.4322749630847511</v>
+        <v>0.4569260639090515</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.313512580976081</v>
+        <v>3.975806658014051</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.141480240302798</v>
+        <v>1.64734674111898</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.006270652229485307</v>
+        <v>0.008667039786935504</v>
       </c>
       <c r="E3">
-        <v>0.02680372511360574</v>
+        <v>0.06057112385611951</v>
       </c>
       <c r="F3">
-        <v>2.526957892983361</v>
+        <v>4.16234374125051</v>
       </c>
       <c r="G3">
-        <v>0.000857908514206529</v>
+        <v>0.002639890346336095</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07396384135727452</v>
+        <v>0.1478545024921321</v>
       </c>
       <c r="K3">
-        <v>2.115776032890778</v>
+        <v>1.802384033067739</v>
       </c>
       <c r="L3">
-        <v>0.3826062523970251</v>
+        <v>0.4474931867815144</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.333234660487207</v>
+        <v>3.985893407974686</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.067654866498259</v>
+        <v>1.634912823024422</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.005585832900155907</v>
+        <v>0.008391523925883604</v>
       </c>
       <c r="E4">
-        <v>0.02629222277204679</v>
+        <v>0.0604205277641805</v>
       </c>
       <c r="F4">
-        <v>2.449235666323546</v>
+        <v>4.153718281887734</v>
       </c>
       <c r="G4">
-        <v>0.000862929091211197</v>
+        <v>0.002643143361588096</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07393905955918356</v>
+        <v>0.1478494338654501</v>
       </c>
       <c r="K4">
-        <v>1.934688432141598</v>
+        <v>1.763006237460445</v>
       </c>
       <c r="L4">
-        <v>0.3527456291416087</v>
+        <v>0.4419676822564327</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.347458387174768</v>
+        <v>3.992924812539641</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.037956930804228</v>
+        <v>1.63005783711202</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.005314270472178251</v>
+        <v>0.008278564649433662</v>
       </c>
       <c r="E5">
-        <v>0.0260862268825961</v>
+        <v>0.06035859748312378</v>
       </c>
       <c r="F5">
-        <v>2.418495829658056</v>
+        <v>4.150620493967494</v>
       </c>
       <c r="G5">
-        <v>0.0008650122516649151</v>
+        <v>0.00264451042641876</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07393270105574556</v>
+        <v>0.147848053895455</v>
       </c>
       <c r="K5">
-        <v>1.861656929878251</v>
+        <v>1.747251355115736</v>
       </c>
       <c r="L5">
-        <v>0.3407209855063797</v>
+        <v>0.4397829055083378</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.353763748577748</v>
+        <v>3.996000726232054</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.033047981222325</v>
+        <v>1.62926447705172</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005269594427385726</v>
+        <v>0.008259765633120253</v>
       </c>
       <c r="E6">
-        <v>0.02605215358722646</v>
+        <v>0.06034827976961887</v>
       </c>
       <c r="F6">
-        <v>2.413445897823507</v>
+        <v>4.150131295292582</v>
       </c>
       <c r="G6">
-        <v>0.0008653604426990338</v>
+        <v>0.002644739933247458</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07393186291290821</v>
+        <v>0.147847866016285</v>
       </c>
       <c r="K6">
-        <v>1.849573543931996</v>
+        <v>1.74465288141576</v>
       </c>
       <c r="L6">
-        <v>0.3387325381750657</v>
+        <v>0.439424164675188</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.354840867688779</v>
+        <v>3.996524191205424</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.067252829157212</v>
+        <v>1.634846488591165</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00558214179461558</v>
+        <v>0.008390003328845097</v>
       </c>
       <c r="E7">
-        <v>0.02628943544710483</v>
+        <v>0.06041969483782283</v>
       </c>
       <c r="F7">
-        <v>2.448817410058055</v>
+        <v>4.15367481540504</v>
       </c>
       <c r="G7">
-        <v>0.0008629570330611948</v>
+        <v>0.002643161630593893</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07393895903741665</v>
+        <v>0.1478494124850864</v>
       </c>
       <c r="K7">
-        <v>1.933700534633374</v>
+        <v>1.762792580535802</v>
       </c>
       <c r="L7">
-        <v>0.3525828988285156</v>
+        <v>0.4419379467463784</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.347541390857003</v>
+        <v>3.992965443114727</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.221677502918396</v>
+        <v>1.661338759933869</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007030805823294628</v>
+        <v>0.008958787345555663</v>
       </c>
       <c r="E8">
-        <v>0.02735948289582213</v>
+        <v>0.06072993933679083</v>
       </c>
       <c r="F8">
-        <v>2.613276382121427</v>
+        <v>4.172974696202587</v>
       </c>
       <c r="G8">
-        <v>0.000852674876210242</v>
+        <v>0.00263656032315439</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07400390699382386</v>
+        <v>0.1478622682402673</v>
       </c>
       <c r="K8">
-        <v>2.31188846106204</v>
+        <v>1.845403221923931</v>
       </c>
       <c r="L8">
-        <v>0.4150070237952548</v>
+        <v>0.4536182936195701</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.319859805812413</v>
+        <v>3.979110506455299</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.539526732645697</v>
+        <v>1.719967143853438</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01021852794261235</v>
+        <v>0.01005495431777348</v>
       </c>
       <c r="E9">
-        <v>0.02958167987886506</v>
+        <v>0.06132155760864899</v>
       </c>
       <c r="F9">
-        <v>2.970826197769043</v>
+        <v>4.224014630039193</v>
       </c>
       <c r="G9">
-        <v>0.0008335858401629018</v>
+        <v>0.002624912075569377</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07427405427754064</v>
+        <v>0.147909493644216</v>
       </c>
       <c r="K9">
-        <v>3.085337966118914</v>
+        <v>2.016669608877123</v>
       </c>
       <c r="L9">
-        <v>0.5432707216630064</v>
+        <v>0.4786410938785224</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.283464532234319</v>
+        <v>3.958600355963057</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.784862471198352</v>
+        <v>1.76711427995474</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01287964982437728</v>
+        <v>0.01085062149188332</v>
       </c>
       <c r="E10">
-        <v>0.03133568560897437</v>
+        <v>0.0617468062663189</v>
       </c>
       <c r="F10">
-        <v>3.260166670556544</v>
+        <v>4.269594151167723</v>
       </c>
       <c r="G10">
-        <v>0.0008201223134274827</v>
+        <v>0.002617135999703368</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07458399787230308</v>
+        <v>0.14795794286213</v>
       </c>
       <c r="K10">
-        <v>3.680310656993015</v>
+        <v>2.14821810852834</v>
       </c>
       <c r="L10">
-        <v>0.6423134983877219</v>
+        <v>0.498325471845277</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.269339372154946</v>
+        <v>3.947605628452948</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.899701358700156</v>
+        <v>1.789448226814102</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01418791540694997</v>
+        <v>0.01121093450360888</v>
       </c>
       <c r="E11">
-        <v>0.03217210553053196</v>
+        <v>0.06193839777166943</v>
       </c>
       <c r="F11">
-        <v>3.398914162132428</v>
+        <v>4.292093014752396</v>
       </c>
       <c r="G11">
-        <v>0.0008140959117257358</v>
+        <v>0.002613766380090523</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07475569873663535</v>
+        <v>0.147983043806895</v>
       </c>
       <c r="K11">
-        <v>3.958631234401707</v>
+        <v>2.20932104202484</v>
       </c>
       <c r="L11">
-        <v>0.6887283282057126</v>
+        <v>0.5075649140161573</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.26608493191236</v>
+        <v>3.943491781894991</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.943714945444668</v>
+        <v>1.7980329387604</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01470015718035</v>
+        <v>0.01134717558364429</v>
       </c>
       <c r="E12">
-        <v>0.03249556705253376</v>
+        <v>0.06201069567945261</v>
       </c>
       <c r="F12">
-        <v>3.452604440186747</v>
+        <v>4.300867058578604</v>
       </c>
       <c r="G12">
-        <v>0.0008118258220231221</v>
+        <v>0.002612514374239814</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07482577631063503</v>
+        <v>0.1479929950752972</v>
       </c>
       <c r="K12">
-        <v>4.065300532202968</v>
+        <v>2.232641449326763</v>
       </c>
       <c r="L12">
-        <v>0.7065295321574752</v>
+        <v>0.5111047494920626</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.265349682531749</v>
+        <v>3.942061893400066</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.934211359611965</v>
+        <v>1.796178406563627</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01458903960837077</v>
+        <v>0.01131784204843456</v>
       </c>
       <c r="E13">
-        <v>0.03242558378336557</v>
+        <v>0.06199513609848051</v>
       </c>
       <c r="F13">
-        <v>3.440988001906305</v>
+        <v>4.298966097310654</v>
       </c>
       <c r="G13">
-        <v>0.0008123142304465751</v>
+        <v>0.00261278295091498</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07481044759702815</v>
+        <v>0.1479908319568284</v>
       </c>
       <c r="K13">
-        <v>4.042267692327869</v>
+        <v>2.227610873499202</v>
       </c>
       <c r="L13">
-        <v>0.7026852161485522</v>
+        <v>0.5103405550222249</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.265485214662121</v>
+        <v>3.942364150889361</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.903311452869303</v>
+        <v>1.790151945124677</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01422970318151329</v>
+        <v>0.01122214698316526</v>
       </c>
       <c r="E14">
-        <v>0.03219857463502862</v>
+        <v>0.06194435077049398</v>
       </c>
       <c r="F14">
-        <v>3.403307485755562</v>
+        <v>4.292809763033688</v>
       </c>
       <c r="G14">
-        <v>0.0008139089231115488</v>
+        <v>0.002613662896701802</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07476135865619904</v>
+        <v>0.1479838535290359</v>
       </c>
       <c r="K14">
-        <v>3.967380357353477</v>
+        <v>2.211235973045575</v>
       </c>
       <c r="L14">
-        <v>0.6901881556977969</v>
+        <v>0.5078553150045479</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.266014226387966</v>
+        <v>3.943371578433897</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.884454885881013</v>
+        <v>1.786477141608003</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01401188037877432</v>
+        <v>0.01116350575509628</v>
       </c>
       <c r="E15">
-        <v>0.0320604393807491</v>
+        <v>0.06191321065743338</v>
       </c>
       <c r="F15">
-        <v>3.380380752479198</v>
+        <v>4.289071950928303</v>
       </c>
       <c r="G15">
-        <v>0.0008148872106109305</v>
+        <v>0.002614205010236627</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07473196972582441</v>
+        <v>0.1479796373116056</v>
       </c>
       <c r="K15">
-        <v>3.921681275222113</v>
+        <v>2.201229604667731</v>
       </c>
       <c r="L15">
-        <v>0.6825635667166239</v>
+        <v>0.5063383835394433</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.266404305670747</v>
+        <v>3.944005326460953</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.777427669825187</v>
+        <v>1.765672529766078</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01279634638627414</v>
+        <v>0.01082704410076829</v>
       </c>
       <c r="E16">
-        <v>0.03128189635096668</v>
+        <v>0.0617342490898789</v>
       </c>
       <c r="F16">
-        <v>3.251252937206857</v>
+        <v>4.268159344513407</v>
       </c>
       <c r="G16">
-        <v>0.0008205179511006815</v>
+        <v>0.002617359577094467</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07457344747401429</v>
+        <v>0.1479563645558661</v>
       </c>
       <c r="K16">
-        <v>3.662290334219165</v>
+        <v>2.144250322880964</v>
       </c>
       <c r="L16">
-        <v>0.6393099770403694</v>
+        <v>0.4977273933339319</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.26961927809603</v>
+        <v>3.947892365161081</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.71264004391395</v>
+        <v>1.753136518023098</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01207753705222814</v>
+        <v>0.01062023991100247</v>
       </c>
       <c r="E17">
-        <v>0.03081494284295783</v>
+        <v>0.06162399593047674</v>
       </c>
       <c r="F17">
-        <v>3.173946688434</v>
+        <v>4.255782406835607</v>
       </c>
       <c r="G17">
-        <v>0.0008239959302107929</v>
+        <v>0.00261933767747217</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0744844916146592</v>
+        <v>0.1479428756673529</v>
       </c>
       <c r="K17">
-        <v>3.505242517392617</v>
+        <v>2.109618837870755</v>
       </c>
       <c r="L17">
-        <v>0.6131434303978835</v>
+        <v>0.4925178660847678</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.272431575758944</v>
+        <v>3.950504501718882</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.675676301356816</v>
+        <v>1.746009583271615</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01167310546910372</v>
+        <v>0.01050113517302975</v>
       </c>
       <c r="E18">
-        <v>0.03054990797699109</v>
+        <v>0.06156040570420362</v>
       </c>
       <c r="F18">
-        <v>3.130144546205685</v>
+        <v>4.24882957432277</v>
       </c>
       <c r="G18">
-        <v>0.0008260057583661274</v>
+        <v>0.002620491225867835</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07443617302472028</v>
+        <v>0.1479354049861978</v>
       </c>
       <c r="K18">
-        <v>3.415622706281567</v>
+        <v>2.089818356352168</v>
       </c>
       <c r="L18">
-        <v>0.5982191653719724</v>
+        <v>0.4895482963140267</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.274344894902114</v>
+        <v>3.952090471722741</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.663210838329036</v>
+        <v>1.743610862325653</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01153764073948693</v>
+        <v>0.01046078045346377</v>
       </c>
       <c r="E19">
-        <v>0.03046074700914136</v>
+        <v>0.06153884459824299</v>
       </c>
       <c r="F19">
-        <v>3.115424073442398</v>
+        <v>4.246503970402784</v>
       </c>
       <c r="G19">
-        <v>0.0008266879256759665</v>
+        <v>0.002620884514647576</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07442028400995637</v>
+        <v>0.1479329247891248</v>
       </c>
       <c r="K19">
-        <v>3.385395954305864</v>
+        <v>2.083134606499527</v>
       </c>
       <c r="L19">
-        <v>0.5931868723572506</v>
+        <v>0.4885474534635108</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.275042331555667</v>
+        <v>3.952641793089526</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.719505284187989</v>
+        <v>1.754462362440762</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01215310430185568</v>
+        <v>0.01064227051343991</v>
       </c>
       <c r="E20">
-        <v>0.03086427593699259</v>
+        <v>0.06163575063702531</v>
       </c>
       <c r="F20">
-        <v>3.182106657333435</v>
+        <v>4.257082763594326</v>
       </c>
       <c r="G20">
-        <v>0.0008236247366287132</v>
+        <v>0.002619125471098605</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07449366216672271</v>
+        <v>0.147944281756248</v>
       </c>
       <c r="K20">
-        <v>3.521885858392181</v>
+        <v>2.113293135237654</v>
       </c>
       <c r="L20">
-        <v>0.6159156571575437</v>
+        <v>0.4930696535367076</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.272101308907125</v>
+        <v>3.950217787454974</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.912372689148526</v>
+        <v>1.791918608311448</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0143347680719792</v>
+        <v>0.01125026014106822</v>
       </c>
       <c r="E21">
-        <v>0.0322650597878269</v>
+        <v>0.06195927442915661</v>
       </c>
       <c r="F21">
-        <v>3.414342897977605</v>
+        <v>4.29461112450582</v>
       </c>
       <c r="G21">
-        <v>0.0008134402165128116</v>
+        <v>0.002613403785064999</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07477563438077084</v>
+        <v>0.1479858911082759</v>
       </c>
       <c r="K21">
-        <v>3.989340489014069</v>
+        <v>2.216040731378939</v>
       </c>
       <c r="L21">
-        <v>0.6938524897856837</v>
+        <v>0.5085841751835574</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.265844998946818</v>
+        <v>3.943072198102925</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.041525675611638</v>
+        <v>1.817140551623027</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01586030457679044</v>
+        <v>0.01164645743092763</v>
       </c>
       <c r="E22">
-        <v>0.03322045076914293</v>
+        <v>0.06216924384559608</v>
       </c>
       <c r="F22">
-        <v>3.572892402449071</v>
+        <v>4.320620054953423</v>
       </c>
       <c r="G22">
-        <v>0.0008068526850143652</v>
+        <v>0.002609804140023371</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07498977476182045</v>
+        <v>0.1480156881736523</v>
       </c>
       <c r="K22">
-        <v>4.302378382221718</v>
+        <v>2.284253724634766</v>
       </c>
       <c r="L22">
-        <v>0.7461159176154695</v>
+        <v>0.5189631802511769</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.264676522179343</v>
+        <v>3.939147987005683</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.972288237171512</v>
+        <v>1.803611267023882</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01503594751885728</v>
+        <v>0.0114350941133381</v>
       </c>
       <c r="E23">
-        <v>0.03270644942811263</v>
+        <v>0.06205730947053034</v>
       </c>
       <c r="F23">
-        <v>3.487606919355443</v>
+        <v>4.306602836504851</v>
       </c>
       <c r="G23">
-        <v>0.0008103630669951735</v>
+        <v>0.002611712587753641</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07487251343716084</v>
+        <v>0.147999544770649</v>
       </c>
       <c r="K23">
-        <v>4.134552541359142</v>
+        <v>2.247749788803389</v>
       </c>
       <c r="L23">
-        <v>0.7180898671076079</v>
+        <v>0.5134017775998245</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.265018063168455</v>
+        <v>3.941174071984008</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.716400630500488</v>
+        <v>1.75386269840061</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01211891307629998</v>
+        <v>0.01063231113475638</v>
       </c>
       <c r="E24">
-        <v>0.0308419618710154</v>
+        <v>0.06163043697181525</v>
       </c>
       <c r="F24">
-        <v>3.178415544199282</v>
+        <v>4.256494365118925</v>
       </c>
       <c r="G24">
-        <v>0.0008237925209951426</v>
+        <v>0.00261922135864546</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07448950741344795</v>
+        <v>0.1479436451792635</v>
       </c>
       <c r="K24">
-        <v>3.514359332751951</v>
+        <v>2.11163164400341</v>
       </c>
       <c r="L24">
-        <v>0.6146619642378681</v>
+        <v>0.4928201111424784</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.27224970209555</v>
+        <v>3.950347148648021</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.451673057044161</v>
+        <v>1.703391570188558</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.009308752527378061</v>
+        <v>0.009760261415376448</v>
       </c>
       <c r="E25">
-        <v>0.02896288564696414</v>
+        <v>0.06116322146896769</v>
       </c>
       <c r="F25">
-        <v>2.869833956359031</v>
+        <v>4.208790734649654</v>
       </c>
       <c r="G25">
-        <v>0.0008386440806564992</v>
+        <v>0.002627925298715834</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07418336329782083</v>
+        <v>0.1478943271481032</v>
       </c>
       <c r="K25">
-        <v>2.871981532473171</v>
+        <v>1.96933827535247</v>
       </c>
       <c r="L25">
-        <v>0.5078251625652257</v>
+        <v>0.4716441206653883</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.291229475954381</v>
+        <v>3.963434503262761</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.668968642179323</v>
+        <v>1.264445632726648</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.009111524370560176</v>
+        <v>0.00744327190920302</v>
       </c>
       <c r="E2">
-        <v>0.06081283538677518</v>
+        <v>0.02765629306555306</v>
       </c>
       <c r="F2">
-        <v>4.17909545117071</v>
+        <v>2.660030129866698</v>
       </c>
       <c r="G2">
-        <v>0.002634859792585293</v>
+        <v>0.0008499648115212225</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1478672292744827</v>
+        <v>0.0740303720742479</v>
       </c>
       <c r="K2">
-        <v>1.868411174977524</v>
+        <v>2.416265698403095</v>
       </c>
       <c r="L2">
-        <v>0.4569260639090515</v>
+        <v>0.4322749630848222</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.975806658014051</v>
+        <v>2.313512580976109</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.64734674111898</v>
+        <v>1.141480240302656</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.008667039786935504</v>
+        <v>0.006270652229680707</v>
       </c>
       <c r="E3">
-        <v>0.06057112385611951</v>
+        <v>0.02680372511362883</v>
       </c>
       <c r="F3">
-        <v>4.16234374125051</v>
+        <v>2.526957892983347</v>
       </c>
       <c r="G3">
-        <v>0.002639890346336095</v>
+        <v>0.000857908514214642</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1478545024921321</v>
+        <v>0.0739638413572048</v>
       </c>
       <c r="K3">
-        <v>1.802384033067739</v>
+        <v>2.115776032890807</v>
       </c>
       <c r="L3">
-        <v>0.4474931867815144</v>
+        <v>0.3826062523970819</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.985893407974686</v>
+        <v>2.333234660487193</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.634912823024422</v>
+        <v>1.067654866498344</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.008391523925883604</v>
+        <v>0.00558583290036907</v>
       </c>
       <c r="E4">
-        <v>0.0604205277641805</v>
+        <v>0.02629222277204679</v>
       </c>
       <c r="F4">
-        <v>4.153718281887734</v>
+        <v>2.449235666323546</v>
       </c>
       <c r="G4">
-        <v>0.002643143361588096</v>
+        <v>0.0008629290911617027</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1478494338654501</v>
+        <v>0.07393905955928481</v>
       </c>
       <c r="K4">
-        <v>1.763006237460445</v>
+        <v>1.934688432141598</v>
       </c>
       <c r="L4">
-        <v>0.4419676822564327</v>
+        <v>0.3527456291415945</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.992924812539641</v>
+        <v>2.347458387174839</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.63005783711202</v>
+        <v>1.037956930804228</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008278564649433662</v>
+        <v>0.005314270472394966</v>
       </c>
       <c r="E5">
-        <v>0.06035859748312378</v>
+        <v>0.02608622688259654</v>
       </c>
       <c r="F5">
-        <v>4.150620493967494</v>
+        <v>2.418495829658056</v>
       </c>
       <c r="G5">
-        <v>0.00264451042641876</v>
+        <v>0.0008650122516954388</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.147848053895455</v>
+        <v>0.073932701055754</v>
       </c>
       <c r="K5">
-        <v>1.747251355115736</v>
+        <v>1.861656929878279</v>
       </c>
       <c r="L5">
-        <v>0.4397829055083378</v>
+        <v>0.3407209855063797</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.996000726232054</v>
+        <v>2.353763748577762</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.62926447705172</v>
+        <v>1.033047981222296</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008259765633120253</v>
+        <v>0.005269594427474544</v>
       </c>
       <c r="E6">
-        <v>0.06034827976961887</v>
+        <v>0.02605215358722557</v>
       </c>
       <c r="F6">
-        <v>4.150131295292582</v>
+        <v>2.413445897823493</v>
       </c>
       <c r="G6">
-        <v>0.002644739933247458</v>
+        <v>0.0008653604426802195</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.147847866016285</v>
+        <v>0.073931862912886</v>
       </c>
       <c r="K6">
-        <v>1.74465288141576</v>
+        <v>1.849573543931882</v>
       </c>
       <c r="L6">
-        <v>0.439424164675188</v>
+        <v>0.3387325381750088</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.996524191205424</v>
+        <v>2.35484086768875</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.634846488591165</v>
+        <v>1.067252829156956</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008390003328845097</v>
+        <v>0.005582141794796769</v>
       </c>
       <c r="E7">
-        <v>0.06041969483782283</v>
+        <v>0.02628943544711548</v>
       </c>
       <c r="F7">
-        <v>4.15367481540504</v>
+        <v>2.448817410058069</v>
       </c>
       <c r="G7">
-        <v>0.002643161630593893</v>
+        <v>0.0008629570329801485</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1478494124850864</v>
+        <v>0.07393895903728032</v>
       </c>
       <c r="K7">
-        <v>1.762792580535802</v>
+        <v>1.933700534633402</v>
       </c>
       <c r="L7">
-        <v>0.4419379467463784</v>
+        <v>0.3525828988285298</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.992965443114727</v>
+        <v>2.347541390856989</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.661338759933869</v>
+        <v>1.221677502918482</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008958787345555663</v>
+        <v>0.007030805823390551</v>
       </c>
       <c r="E8">
-        <v>0.06072993933679083</v>
+        <v>0.02735948289581991</v>
       </c>
       <c r="F8">
-        <v>4.172974696202587</v>
+        <v>2.613276382121384</v>
       </c>
       <c r="G8">
-        <v>0.00263656032315439</v>
+        <v>0.0008526748762093539</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1478622682402673</v>
+        <v>0.07400390699375148</v>
       </c>
       <c r="K8">
-        <v>1.845403221923931</v>
+        <v>2.311888461061955</v>
       </c>
       <c r="L8">
-        <v>0.4536182936195701</v>
+        <v>0.4150070237953258</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.979110506455299</v>
+        <v>2.319859805812385</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.719967143853438</v>
+        <v>1.539526732645783</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01005495431777348</v>
+        <v>0.01021852794249156</v>
       </c>
       <c r="E9">
-        <v>0.06132155760864899</v>
+        <v>0.02958167987889349</v>
       </c>
       <c r="F9">
-        <v>4.224014630039193</v>
+        <v>2.970826197769085</v>
       </c>
       <c r="G9">
-        <v>0.002624912075569377</v>
+        <v>0.000833585840161926</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.147909493644216</v>
+        <v>0.07427405427758549</v>
       </c>
       <c r="K9">
-        <v>2.016669608877123</v>
+        <v>3.085337966118971</v>
       </c>
       <c r="L9">
-        <v>0.4786410938785224</v>
+        <v>0.5432707216629922</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.958600355963057</v>
+        <v>2.283464532234333</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.76711427995474</v>
+        <v>1.78486247119838</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01085062149188332</v>
+        <v>0.01287964982413925</v>
       </c>
       <c r="E10">
-        <v>0.0617468062663189</v>
+        <v>0.03133568560897704</v>
       </c>
       <c r="F10">
-        <v>4.269594151167723</v>
+        <v>3.260166670556544</v>
       </c>
       <c r="G10">
-        <v>0.002617135999703368</v>
+        <v>0.0008201223133695291</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.14795794286213</v>
+        <v>0.07458399787249226</v>
       </c>
       <c r="K10">
-        <v>2.14821810852834</v>
+        <v>3.680310656992958</v>
       </c>
       <c r="L10">
-        <v>0.498325471845277</v>
+        <v>0.642313498387665</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.947605628452948</v>
+        <v>2.26933937215496</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.789448226814102</v>
+        <v>1.899701358700128</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01121093450360888</v>
+        <v>0.01418791540708852</v>
       </c>
       <c r="E11">
-        <v>0.06193839777166943</v>
+        <v>0.03217210553053196</v>
       </c>
       <c r="F11">
-        <v>4.292093014752396</v>
+        <v>3.398914162132399</v>
       </c>
       <c r="G11">
-        <v>0.002613766380090523</v>
+        <v>0.0008140959116619277</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.147983043806895</v>
+        <v>0.07475569873664956</v>
       </c>
       <c r="K11">
-        <v>2.20932104202484</v>
+        <v>3.958631234401764</v>
       </c>
       <c r="L11">
-        <v>0.5075649140161573</v>
+        <v>0.6887283282056842</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.943491781894991</v>
+        <v>2.266084931912275</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.7980329387604</v>
+        <v>1.943714945444697</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01134717558364429</v>
+        <v>0.01470015718034645</v>
       </c>
       <c r="E12">
-        <v>0.06201069567945261</v>
+        <v>0.03249556705253376</v>
       </c>
       <c r="F12">
-        <v>4.300867058578604</v>
+        <v>3.452604440186775</v>
       </c>
       <c r="G12">
-        <v>0.002612514374239814</v>
+        <v>0.0008118258219563594</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1479929950752972</v>
+        <v>0.07482577631068832</v>
       </c>
       <c r="K12">
-        <v>2.232641449326763</v>
+        <v>4.065300532203196</v>
       </c>
       <c r="L12">
-        <v>0.5111047494920626</v>
+        <v>0.7065295321574752</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.942061893400066</v>
+        <v>2.265349682531749</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.796178406563627</v>
+        <v>1.934211359611936</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01131784204843456</v>
+        <v>0.01458903960825708</v>
       </c>
       <c r="E13">
-        <v>0.06199513609848051</v>
+        <v>0.03242558378333804</v>
       </c>
       <c r="F13">
-        <v>4.298966097310654</v>
+        <v>3.440988001906305</v>
       </c>
       <c r="G13">
-        <v>0.00261278295091498</v>
+        <v>0.0008123142304419382</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1479908319568284</v>
+        <v>0.07481044759719113</v>
       </c>
       <c r="K13">
-        <v>2.227610873499202</v>
+        <v>4.042267692327869</v>
       </c>
       <c r="L13">
-        <v>0.5103405550222249</v>
+        <v>0.7026852161485522</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.942364150889361</v>
+        <v>2.265485214662135</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.790151945124677</v>
+        <v>1.903311452869389</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01122214698316526</v>
+        <v>0.01422970318161987</v>
       </c>
       <c r="E14">
-        <v>0.06194435077049398</v>
+        <v>0.0321985746350224</v>
       </c>
       <c r="F14">
-        <v>4.292809763033688</v>
+        <v>3.403307485755533</v>
       </c>
       <c r="G14">
-        <v>0.002613662896701802</v>
+        <v>0.0008139089231682763</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1479838535290359</v>
+        <v>0.07476135865629141</v>
       </c>
       <c r="K14">
-        <v>2.211235973045575</v>
+        <v>3.967380357353363</v>
       </c>
       <c r="L14">
-        <v>0.5078553150045479</v>
+        <v>0.6901881556977685</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.943371578433897</v>
+        <v>2.266014226387938</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.786477141608003</v>
+        <v>1.884454885880899</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01116350575509628</v>
+        <v>0.01401188037903367</v>
       </c>
       <c r="E15">
-        <v>0.06191321065743338</v>
+        <v>0.03206043938072511</v>
       </c>
       <c r="F15">
-        <v>4.289071950928303</v>
+        <v>3.380380752479169</v>
       </c>
       <c r="G15">
-        <v>0.002614205010236627</v>
+        <v>0.0008148872106203473</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1479796373116056</v>
+        <v>0.07473196972580043</v>
       </c>
       <c r="K15">
-        <v>2.201229604667731</v>
+        <v>3.92168127522217</v>
       </c>
       <c r="L15">
-        <v>0.5063383835394433</v>
+        <v>0.6825635667166239</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.944005326460953</v>
+        <v>2.266404305670775</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.765672529766078</v>
+        <v>1.777427669825101</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01082704410076829</v>
+        <v>0.01279634638625993</v>
       </c>
       <c r="E16">
-        <v>0.0617342490898789</v>
+        <v>0.03128189635096223</v>
       </c>
       <c r="F16">
-        <v>4.268159344513407</v>
+        <v>3.251252937206857</v>
       </c>
       <c r="G16">
-        <v>0.002617359577094467</v>
+        <v>0.0008205179511576364</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1479563645558661</v>
+        <v>0.07457344747405159</v>
       </c>
       <c r="K16">
-        <v>2.144250322880964</v>
+        <v>3.662290334218994</v>
       </c>
       <c r="L16">
-        <v>0.4977273933339319</v>
+        <v>0.6393099770403552</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.947892365161081</v>
+        <v>2.269619278095917</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.753136518023098</v>
+        <v>1.712640043914178</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01062023991100247</v>
+        <v>0.01207753705197945</v>
       </c>
       <c r="E17">
-        <v>0.06162399593047674</v>
+        <v>0.03081494284295783</v>
       </c>
       <c r="F17">
-        <v>4.255782406835607</v>
+        <v>3.173946688434</v>
       </c>
       <c r="G17">
-        <v>0.00261933767747217</v>
+        <v>0.0008239959302107636</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1479428756673529</v>
+        <v>0.07448449161459303</v>
       </c>
       <c r="K17">
-        <v>2.109618837870755</v>
+        <v>3.50524251739256</v>
       </c>
       <c r="L17">
-        <v>0.4925178660847678</v>
+        <v>0.6131434303979972</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.950504501718882</v>
+        <v>2.272431575758915</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.746009583271615</v>
+        <v>1.675676301356987</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01050113517302975</v>
+        <v>0.01167310546886213</v>
       </c>
       <c r="E18">
-        <v>0.06156040570420362</v>
+        <v>0.03054990797701951</v>
       </c>
       <c r="F18">
-        <v>4.24882957432277</v>
+        <v>3.130144546205685</v>
       </c>
       <c r="G18">
-        <v>0.002620491225867835</v>
+        <v>0.0008260057584242549</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1479354049861978</v>
+        <v>0.07443617302483974</v>
       </c>
       <c r="K18">
-        <v>2.089818356352168</v>
+        <v>3.415622706281681</v>
       </c>
       <c r="L18">
-        <v>0.4895482963140267</v>
+        <v>0.5982191653718871</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.952090471722741</v>
+        <v>2.274344894902114</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.743610862325653</v>
+        <v>1.663210838328951</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01046078045346377</v>
+        <v>0.01153764073949404</v>
       </c>
       <c r="E19">
-        <v>0.06153884459824299</v>
+        <v>0.03046074700911561</v>
       </c>
       <c r="F19">
-        <v>4.246503970402784</v>
+        <v>3.115424073442398</v>
       </c>
       <c r="G19">
-        <v>0.002620884514647576</v>
+        <v>0.00082668792567756</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1479329247891248</v>
+        <v>0.0744202840100332</v>
       </c>
       <c r="K19">
-        <v>2.083134606499527</v>
+        <v>3.38539595430592</v>
       </c>
       <c r="L19">
-        <v>0.4885474534635108</v>
+        <v>0.5931868723571228</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.952641793089526</v>
+        <v>2.275042331555682</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.754462362440762</v>
+        <v>1.719505284187875</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01064227051343991</v>
+        <v>0.01215310430185212</v>
       </c>
       <c r="E20">
-        <v>0.06163575063702531</v>
+        <v>0.03086427593702457</v>
       </c>
       <c r="F20">
-        <v>4.257082763594326</v>
+        <v>3.182106657333435</v>
       </c>
       <c r="G20">
-        <v>0.002619125471098605</v>
+        <v>0.0008236247366875459</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.147944281756248</v>
+        <v>0.07449366216678133</v>
       </c>
       <c r="K20">
-        <v>2.113293135237654</v>
+        <v>3.521885858392181</v>
       </c>
       <c r="L20">
-        <v>0.4930696535367076</v>
+        <v>0.6159156571575579</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.950217787454974</v>
+        <v>2.272101308907054</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.791918608311448</v>
+        <v>1.912372689148583</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01125026014106822</v>
+        <v>0.0143347680719792</v>
       </c>
       <c r="E21">
-        <v>0.06195927442915661</v>
+        <v>0.03226505978785177</v>
       </c>
       <c r="F21">
-        <v>4.29461112450582</v>
+        <v>3.414342897977633</v>
       </c>
       <c r="G21">
-        <v>0.002613403785064999</v>
+        <v>0.0008134402164959907</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1479858911082759</v>
+        <v>0.07477563438081436</v>
       </c>
       <c r="K21">
-        <v>2.216040731378939</v>
+        <v>3.989340489014182</v>
       </c>
       <c r="L21">
-        <v>0.5085841751835574</v>
+        <v>0.6938524897856837</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.943072198102925</v>
+        <v>2.265844998946832</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.817140551623027</v>
+        <v>2.041525675611695</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01164645743092763</v>
+        <v>0.01586030457678689</v>
       </c>
       <c r="E22">
-        <v>0.06216924384559608</v>
+        <v>0.0332204507691749</v>
       </c>
       <c r="F22">
-        <v>4.320620054953423</v>
+        <v>3.572892402449071</v>
       </c>
       <c r="G22">
-        <v>0.002609804140023371</v>
+        <v>0.0008068526850035601</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1480156881736523</v>
+        <v>0.07498977476175472</v>
       </c>
       <c r="K22">
-        <v>2.284253724634766</v>
+        <v>4.302378382221548</v>
       </c>
       <c r="L22">
-        <v>0.5189631802511769</v>
+        <v>0.7461159176155547</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.939147987005683</v>
+        <v>2.264676522179343</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.803611267023882</v>
+        <v>1.972288237171824</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0114350941133381</v>
+        <v>0.01503594751886084</v>
       </c>
       <c r="E23">
-        <v>0.06205730947053034</v>
+        <v>0.03270644942813927</v>
       </c>
       <c r="F23">
-        <v>4.306602836504851</v>
+        <v>3.487606919355414</v>
       </c>
       <c r="G23">
-        <v>0.002611712587753641</v>
+        <v>0.0008103630670024263</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.147999544770649</v>
+        <v>0.07487251343708312</v>
       </c>
       <c r="K23">
-        <v>2.247749788803389</v>
+        <v>4.134552541359028</v>
       </c>
       <c r="L23">
-        <v>0.5134017775998245</v>
+        <v>0.7180898671076363</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.941174071984008</v>
+        <v>2.265018063168426</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.75386269840061</v>
+        <v>1.71640063050063</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01063231113475638</v>
+        <v>0.01211891307628932</v>
       </c>
       <c r="E24">
-        <v>0.06163043697181525</v>
+        <v>0.0308419618710758</v>
       </c>
       <c r="F24">
-        <v>4.256494365118925</v>
+        <v>3.178415544199282</v>
       </c>
       <c r="G24">
-        <v>0.00261922135864546</v>
+        <v>0.0008237925209926459</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1479436451792635</v>
+        <v>0.07448950741336713</v>
       </c>
       <c r="K24">
-        <v>2.11163164400341</v>
+        <v>3.514359332752008</v>
       </c>
       <c r="L24">
-        <v>0.4928201111424784</v>
+        <v>0.6146619642378539</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950347148648021</v>
+        <v>2.27224970209565</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.703391570188558</v>
+        <v>1.451673057044104</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.009760261415376448</v>
+        <v>0.009308752527370956</v>
       </c>
       <c r="E25">
-        <v>0.06116322146896769</v>
+        <v>0.02896288564696325</v>
       </c>
       <c r="F25">
-        <v>4.208790734649654</v>
+        <v>2.869833956359031</v>
       </c>
       <c r="G25">
-        <v>0.002627925298715834</v>
+        <v>0.0008386440807140354</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1478943271481032</v>
+        <v>0.07418336329787545</v>
       </c>
       <c r="K25">
-        <v>1.96933827535247</v>
+        <v>2.871981532473285</v>
       </c>
       <c r="L25">
-        <v>0.4716441206653883</v>
+        <v>0.5078251625652683</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.963434503262761</v>
+        <v>2.291229475954381</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.264445632726648</v>
+        <v>1.379862365112302</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00744327190920302</v>
+        <v>0.004776559794512636</v>
       </c>
       <c r="E2">
-        <v>0.02765629306555306</v>
+        <v>1.18598990559785</v>
       </c>
       <c r="F2">
-        <v>2.660030129866698</v>
+        <v>1.78157823653477</v>
       </c>
       <c r="G2">
-        <v>0.0008499648115212225</v>
+        <v>1.892746797230842</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0007113073558979721</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01252471514232978</v>
       </c>
       <c r="J2">
-        <v>0.0740303720742479</v>
+        <v>0.9546294938560607</v>
       </c>
       <c r="K2">
-        <v>2.416265698403095</v>
+        <v>0.3322611566060409</v>
       </c>
       <c r="L2">
-        <v>0.4322749630848222</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.313512580976109</v>
+        <v>0.6794267479371001</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.476004953568463</v>
+      </c>
+      <c r="P2">
+        <v>1.280159245623352</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.141480240302656</v>
+        <v>1.207766490603234</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.006270652229680707</v>
+        <v>0.004311774922989287</v>
       </c>
       <c r="E3">
-        <v>0.02680372511362883</v>
+        <v>1.051364142355922</v>
       </c>
       <c r="F3">
-        <v>2.526957892983347</v>
+        <v>1.547753959915113</v>
       </c>
       <c r="G3">
-        <v>0.000857908514214642</v>
+        <v>1.637447550842637</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001702041697990375</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0147891811020826</v>
       </c>
       <c r="J3">
-        <v>0.0739638413572048</v>
+        <v>0.8403482114103156</v>
       </c>
       <c r="K3">
-        <v>2.115776032890807</v>
+        <v>0.3463464660371791</v>
       </c>
       <c r="L3">
-        <v>0.3826062523970819</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.333234660487193</v>
+        <v>0.5910332488334689</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.415306202037776</v>
+      </c>
+      <c r="P3">
+        <v>1.257748134569312</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.067654866498344</v>
+        <v>1.101418267195044</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00558583290036907</v>
+        <v>0.004043958058243646</v>
       </c>
       <c r="E4">
-        <v>0.02629222277204679</v>
+        <v>0.9698390264682075</v>
       </c>
       <c r="F4">
-        <v>2.449235666323546</v>
+        <v>1.406937349501433</v>
       </c>
       <c r="G4">
-        <v>0.0008629290911617027</v>
+        <v>1.483578710563307</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.002545901005807705</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01635095135101228</v>
       </c>
       <c r="J4">
-        <v>0.07393905955928481</v>
+        <v>0.7717454485663211</v>
       </c>
       <c r="K4">
-        <v>1.934688432141598</v>
+        <v>0.3552939076965309</v>
       </c>
       <c r="L4">
-        <v>0.3527456291415945</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.347458387174839</v>
+        <v>0.537127581342574</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.378015094131392</v>
+      </c>
+      <c r="P4">
+        <v>1.244916260853103</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.037956930804228</v>
+        <v>1.056431989051987</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.005314270472394966</v>
+        <v>0.003927557604727738</v>
       </c>
       <c r="E5">
-        <v>0.02608622688259654</v>
+        <v>0.9376657842270646</v>
       </c>
       <c r="F5">
-        <v>2.418495829658056</v>
+        <v>1.349626222506984</v>
       </c>
       <c r="G5">
-        <v>0.0008650122516954388</v>
+        <v>1.420872305658889</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0029470952797091</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01711998896446509</v>
       </c>
       <c r="J5">
-        <v>0.073932701055754</v>
+        <v>0.7438176760430508</v>
       </c>
       <c r="K5">
-        <v>1.861656929878279</v>
+        <v>0.3587981000420815</v>
       </c>
       <c r="L5">
-        <v>0.3407209855063797</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.353763748577762</v>
+        <v>0.5157663191156416</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3626976013258414</v>
+      </c>
+      <c r="P5">
+        <v>1.240933998250256</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.033047981222296</v>
+        <v>1.04714557222519</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005269594427474544</v>
+        <v>0.003894987178044929</v>
       </c>
       <c r="E6">
-        <v>0.02605215358722557</v>
+        <v>0.9333342008668382</v>
       </c>
       <c r="F6">
-        <v>2.413445897823493</v>
+        <v>1.339495849647264</v>
       </c>
       <c r="G6">
-        <v>0.0008653604426802195</v>
+        <v>1.409724125471058</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.00301921202036004</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01736874714314407</v>
       </c>
       <c r="J6">
-        <v>0.073931862912886</v>
+        <v>0.7388096498404764</v>
       </c>
       <c r="K6">
-        <v>1.849573543931882</v>
+        <v>0.359123544537221</v>
       </c>
       <c r="L6">
-        <v>0.3387325381750088</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.35484086768875</v>
+        <v>0.5128670950403063</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3600163358348141</v>
+      </c>
+      <c r="P6">
+        <v>1.241537855095075</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.067252829156956</v>
+        <v>1.095863451008938</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005582141794796769</v>
+        <v>0.004005635028509147</v>
       </c>
       <c r="E7">
-        <v>0.02628943544711548</v>
+        <v>0.9721389376747709</v>
       </c>
       <c r="F7">
-        <v>2.448817410058069</v>
+        <v>1.404389660983298</v>
       </c>
       <c r="G7">
-        <v>0.0008629570329801485</v>
+        <v>1.480620871443392</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.002556531087226033</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01666816126057391</v>
       </c>
       <c r="J7">
-        <v>0.07393895903728032</v>
+        <v>0.7702999997986524</v>
       </c>
       <c r="K7">
-        <v>1.933700534633402</v>
+        <v>0.3546339942246393</v>
       </c>
       <c r="L7">
-        <v>0.3525828988285298</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.347541390856989</v>
+        <v>0.5385990860943224</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.377432367571231</v>
+      </c>
+      <c r="P7">
+        <v>1.248310459594961</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.221677502918482</v>
+        <v>1.314054706609141</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007030805823390551</v>
+        <v>0.004563742335646381</v>
       </c>
       <c r="E8">
-        <v>0.02735948289581991</v>
+        <v>1.142964125358077</v>
       </c>
       <c r="F8">
-        <v>2.613276382121384</v>
+        <v>1.697968685464303</v>
       </c>
       <c r="G8">
-        <v>0.0008526748762093539</v>
+        <v>1.801248830126639</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001005815630616747</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01363876734328517</v>
       </c>
       <c r="J8">
-        <v>0.07400390699375148</v>
+        <v>0.9134526399235483</v>
       </c>
       <c r="K8">
-        <v>2.311888461061955</v>
+        <v>0.3361524988859941</v>
       </c>
       <c r="L8">
-        <v>0.4150070237953258</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.319859805812385</v>
+        <v>0.65120828867407</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4545736390780064</v>
+      </c>
+      <c r="P8">
+        <v>1.276946417427411</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.539526732645783</v>
+        <v>1.745580596743565</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01021852794249156</v>
+        <v>0.005897543380717352</v>
       </c>
       <c r="E9">
-        <v>0.02958167987889349</v>
+        <v>1.484547606400923</v>
       </c>
       <c r="F9">
-        <v>2.970826197769085</v>
+        <v>2.303211298430782</v>
       </c>
       <c r="G9">
-        <v>0.000833585840161926</v>
+        <v>2.461673261173559</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.221004748752641E-05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.008664699698107015</v>
       </c>
       <c r="J9">
-        <v>0.07427405427758549</v>
+        <v>1.210850316038517</v>
       </c>
       <c r="K9">
-        <v>3.085337966118971</v>
+        <v>0.3035707957879676</v>
       </c>
       <c r="L9">
-        <v>0.5432707216629922</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.283464532234333</v>
+        <v>0.8723736314626933</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.6065430269469161</v>
+      </c>
+      <c r="P9">
+        <v>1.334259880426472</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.78486247119838</v>
+        <v>2.040109039103925</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01287964982413925</v>
+        <v>0.006746776975866453</v>
       </c>
       <c r="E10">
-        <v>0.03133568560897704</v>
+        <v>1.770596237018907</v>
       </c>
       <c r="F10">
-        <v>3.260166670556544</v>
+        <v>2.756083298503</v>
       </c>
       <c r="G10">
-        <v>0.0008201223133695291</v>
+        <v>2.95387866374287</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0009273124031277113</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.006218773792483923</v>
       </c>
       <c r="J10">
-        <v>0.07458399787249226</v>
+        <v>1.433126944360509</v>
       </c>
       <c r="K10">
-        <v>3.680310656992958</v>
+        <v>0.2787186432588635</v>
       </c>
       <c r="L10">
-        <v>0.642313498387665</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.26933937215496</v>
+        <v>1.016551879898287</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.7079475964902642</v>
+      </c>
+      <c r="P10">
+        <v>1.400068037398327</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.899701358700128</v>
+        <v>2.017852177079703</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01418791540708852</v>
+        <v>0.004960247174429</v>
       </c>
       <c r="E11">
-        <v>0.03217210553053196</v>
+        <v>2.120925375074478</v>
       </c>
       <c r="F11">
-        <v>3.398914162132399</v>
+        <v>2.843603023903484</v>
       </c>
       <c r="G11">
-        <v>0.0008140959116619277</v>
+        <v>3.035929726958813</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01960443581181082</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00632597717049066</v>
       </c>
       <c r="J11">
-        <v>0.07475569873664956</v>
+        <v>1.463457053734402</v>
       </c>
       <c r="K11">
-        <v>3.958631234401764</v>
+        <v>0.2545917236155132</v>
       </c>
       <c r="L11">
-        <v>0.6887283282056842</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.266084931912275</v>
+        <v>0.8985394276871261</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.664859731235147</v>
+      </c>
+      <c r="P11">
+        <v>1.601300165254131</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.943714945444697</v>
+        <v>1.944416548781476</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01470015718034645</v>
+        <v>0.003587295617609954</v>
       </c>
       <c r="E12">
-        <v>0.03249556705253376</v>
+        <v>2.371017437958216</v>
       </c>
       <c r="F12">
-        <v>3.452604440186775</v>
+        <v>2.821259894197425</v>
       </c>
       <c r="G12">
-        <v>0.0008118258219563594</v>
+        <v>3.001229201353226</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0582152610944604</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.006337598686187107</v>
       </c>
       <c r="J12">
-        <v>0.07482577631068832</v>
+        <v>1.441950058145778</v>
       </c>
       <c r="K12">
-        <v>4.065300532203196</v>
+        <v>0.248541815355658</v>
       </c>
       <c r="L12">
-        <v>0.7065295321574752</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.265349682531749</v>
+        <v>0.7739135875170575</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6091848260431263</v>
+      </c>
+      <c r="P12">
+        <v>1.771786832666947</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.934211359611936</v>
+        <v>1.820164807215548</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01458903960825708</v>
+        <v>0.002376033033090863</v>
       </c>
       <c r="E13">
-        <v>0.03242558378333804</v>
+        <v>2.558877187374222</v>
       </c>
       <c r="F13">
-        <v>3.440988001906305</v>
+        <v>2.708119762097652</v>
       </c>
       <c r="G13">
-        <v>0.0008123142304419382</v>
+        <v>2.869092154833652</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1137442572117493</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.006710432337032834</v>
       </c>
       <c r="J13">
-        <v>0.07481044759719113</v>
+        <v>1.37652086215715</v>
       </c>
       <c r="K13">
-        <v>4.042267692327869</v>
+        <v>0.2545161497837025</v>
       </c>
       <c r="L13">
-        <v>0.7026852161485522</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.265485214662135</v>
+        <v>0.640685137567985</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5404564385084143</v>
+      </c>
+      <c r="P13">
+        <v>1.931267178696942</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.903311452869389</v>
+        <v>1.709611445188472</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01422970318161987</v>
+        <v>0.001635131958144243</v>
       </c>
       <c r="E14">
-        <v>0.0321985746350224</v>
+        <v>2.664283136680154</v>
       </c>
       <c r="F14">
-        <v>3.403307485755533</v>
+        <v>2.587932166637501</v>
       </c>
       <c r="G14">
-        <v>0.0008139089231682763</v>
+        <v>2.732678736923646</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1628912290209286</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.007240382096036058</v>
       </c>
       <c r="J14">
-        <v>0.07476135865629141</v>
+        <v>1.310893246510176</v>
       </c>
       <c r="K14">
-        <v>3.967380357353363</v>
+        <v>0.2650968836804353</v>
       </c>
       <c r="L14">
-        <v>0.6901881556977685</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.266014226387938</v>
+        <v>0.5460849864966235</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.487070091470386</v>
+      </c>
+      <c r="P14">
+        <v>2.040472249502557</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.884454885880899</v>
+        <v>1.670342205108341</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01401188037903367</v>
+        <v>0.001449365543750858</v>
       </c>
       <c r="E15">
-        <v>0.03206043938072511</v>
+        <v>2.675200634344776</v>
       </c>
       <c r="F15">
-        <v>3.380380752479169</v>
+        <v>2.539152906766418</v>
       </c>
       <c r="G15">
-        <v>0.0008148872106203473</v>
+        <v>2.678438550260978</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1753096303877868</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.00759454995223674</v>
       </c>
       <c r="J15">
-        <v>0.07473196972580043</v>
+        <v>1.285436314093829</v>
       </c>
       <c r="K15">
-        <v>3.92168127522217</v>
+        <v>0.2693157386376246</v>
       </c>
       <c r="L15">
-        <v>0.6825635667166239</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.266404305670775</v>
+        <v>0.5208733077411125</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4711009399613673</v>
+      </c>
+      <c r="P15">
+        <v>2.063821925502197</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.777427669825101</v>
+        <v>1.569687872645886</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01279634638625993</v>
+        <v>0.001279809791538966</v>
       </c>
       <c r="E16">
-        <v>0.03128189635096223</v>
+        <v>2.505726589027262</v>
       </c>
       <c r="F16">
-        <v>3.251252937206857</v>
+        <v>2.362531584022904</v>
       </c>
       <c r="G16">
-        <v>0.0008205179511576364</v>
+        <v>2.488599143614067</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621485452745191</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.008753587645305316</v>
       </c>
       <c r="J16">
-        <v>0.07457344747405159</v>
+        <v>1.200565873864065</v>
       </c>
       <c r="K16">
-        <v>3.662290334218994</v>
+        <v>0.2773077448827443</v>
       </c>
       <c r="L16">
-        <v>0.6393099770403552</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.269619278095917</v>
+        <v>0.4907114922888809</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4432853161354515</v>
+      </c>
+      <c r="P16">
+        <v>1.996991254355777</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.712640043914178</v>
+        <v>1.550415458476976</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01207753705197945</v>
+        <v>0.001529207640384556</v>
       </c>
       <c r="E17">
-        <v>0.03081494284295783</v>
+        <v>2.320258278850602</v>
       </c>
       <c r="F17">
-        <v>3.173946688434</v>
+        <v>2.292135022272703</v>
       </c>
       <c r="G17">
-        <v>0.0008239959302107636</v>
+        <v>2.416686926256148</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1241924362327751</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.009390982870989717</v>
       </c>
       <c r="J17">
-        <v>0.07448449161459303</v>
+        <v>1.170966137725429</v>
       </c>
       <c r="K17">
-        <v>3.50524251739256</v>
+        <v>0.2773345092864936</v>
       </c>
       <c r="L17">
-        <v>0.6131434303979972</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.272431575758915</v>
+        <v>0.5165227202434011</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4497929263171088</v>
+      </c>
+      <c r="P17">
+        <v>1.887925134280465</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.675676301356987</v>
+        <v>1.603212184874621</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01167310546886213</v>
+        <v>0.002305407386190339</v>
       </c>
       <c r="E18">
-        <v>0.03054990797701951</v>
+        <v>2.104245885327956</v>
       </c>
       <c r="F18">
-        <v>3.130144546205685</v>
+        <v>2.304239578174247</v>
       </c>
       <c r="G18">
-        <v>0.0008260057584242549</v>
+        <v>2.437437294383216</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07133793858026394</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.009249036420555079</v>
       </c>
       <c r="J18">
-        <v>0.07443617302483974</v>
+        <v>1.18519626468867</v>
       </c>
       <c r="K18">
-        <v>3.415622706281681</v>
+        <v>0.274154486384977</v>
       </c>
       <c r="L18">
-        <v>0.5982191653718871</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.274344894902114</v>
+        <v>0.5969225862827869</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4879117943409526</v>
+      </c>
+      <c r="P18">
+        <v>1.734390500592085</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.663210838328951</v>
+        <v>1.702497098133051</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01153764073949404</v>
+        <v>0.003611390606106823</v>
       </c>
       <c r="E19">
-        <v>0.03046074700911561</v>
+        <v>1.897303137608148</v>
       </c>
       <c r="F19">
-        <v>3.115424073442398</v>
+        <v>2.378037417797117</v>
       </c>
       <c r="G19">
-        <v>0.00082668792567756</v>
+        <v>2.527154123492124</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02618076790796664</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.009052777390956557</v>
       </c>
       <c r="J19">
-        <v>0.0744202840100332</v>
+        <v>1.23147012416436</v>
       </c>
       <c r="K19">
-        <v>3.38539595430592</v>
+        <v>0.2747441829206239</v>
       </c>
       <c r="L19">
-        <v>0.5931868723571228</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.275042331555682</v>
+        <v>0.7259872553046307</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5501192286643075</v>
+      </c>
+      <c r="P19">
+        <v>1.578298461777749</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.719505284187875</v>
+        <v>1.946495605153927</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01215310430185212</v>
+        <v>0.006387030007790173</v>
       </c>
       <c r="E20">
-        <v>0.03086427593702457</v>
+        <v>1.704311008685622</v>
       </c>
       <c r="F20">
-        <v>3.182106657333435</v>
+        <v>2.629052511616692</v>
       </c>
       <c r="G20">
-        <v>0.0008236247366875459</v>
+        <v>2.815183831117253</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0005526117022132127</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.0076982582958669</v>
       </c>
       <c r="J20">
-        <v>0.07449366216678133</v>
+        <v>1.370012488352472</v>
       </c>
       <c r="K20">
-        <v>3.521885858392181</v>
+        <v>0.2831891569063281</v>
       </c>
       <c r="L20">
-        <v>0.6159156571575579</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.272101308907054</v>
+        <v>0.983119508691658</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6796552190270404</v>
+      </c>
+      <c r="P20">
+        <v>1.395099707443265</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.912372689148583</v>
+        <v>2.20107439188655</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0143347680719792</v>
+        <v>0.007558629981513576</v>
       </c>
       <c r="E21">
-        <v>0.03226505978785177</v>
+        <v>1.891885358591708</v>
       </c>
       <c r="F21">
-        <v>3.414342897977633</v>
+        <v>3.009059612920879</v>
       </c>
       <c r="G21">
-        <v>0.0008134402164959907</v>
+        <v>3.230566158553302</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001656205418946732</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.005847913745316013</v>
       </c>
       <c r="J21">
-        <v>0.07477563438081436</v>
+        <v>1.559381596574411</v>
       </c>
       <c r="K21">
-        <v>3.989340489014182</v>
+        <v>0.2685068766905392</v>
       </c>
       <c r="L21">
-        <v>0.6938524897856837</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.265844998946832</v>
+        <v>1.12823464882959</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7738864499164251</v>
+      </c>
+      <c r="P21">
+        <v>1.418753751126644</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.041525675611695</v>
+        <v>2.365022952506422</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01586030457678689</v>
+        <v>0.0082837481739233</v>
       </c>
       <c r="E22">
-        <v>0.0332204507691749</v>
+        <v>2.025848975369527</v>
       </c>
       <c r="F22">
-        <v>3.572892402449071</v>
+        <v>3.259495718965923</v>
       </c>
       <c r="G22">
-        <v>0.0008068526850035601</v>
+        <v>3.503785377880718</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002807610627907686</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004542196166263501</v>
       </c>
       <c r="J22">
-        <v>0.07498977476175472</v>
+        <v>1.683990031325919</v>
       </c>
       <c r="K22">
-        <v>4.302378382221548</v>
+        <v>0.2589145402826256</v>
       </c>
       <c r="L22">
-        <v>0.7461159176155547</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.264676522179343</v>
+        <v>1.210300027170973</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.8308993329820424</v>
+      </c>
+      <c r="P22">
+        <v>1.438774930723113</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.972288237171824</v>
+        <v>2.283580016257758</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01503594751886084</v>
+        <v>0.007933698832729874</v>
       </c>
       <c r="E23">
-        <v>0.03270644942813927</v>
+        <v>1.950626213522298</v>
       </c>
       <c r="F23">
-        <v>3.487606919355414</v>
+        <v>3.127283615132171</v>
       </c>
       <c r="G23">
-        <v>0.0008103630670024263</v>
+        <v>3.359762683253706</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.002160192635274893</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.00487902618731173</v>
       </c>
       <c r="J23">
-        <v>0.07487251343708312</v>
+        <v>1.618395428436315</v>
       </c>
       <c r="K23">
-        <v>4.134552541359028</v>
+        <v>0.2647044589867633</v>
       </c>
       <c r="L23">
-        <v>0.7180898671076363</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.265018063168426</v>
+        <v>1.164288771283367</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.8009227693724483</v>
+      </c>
+      <c r="P23">
+        <v>1.423415837523876</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.71640063050063</v>
+        <v>1.964889954660748</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01211891307628932</v>
+        <v>0.006649858007801157</v>
       </c>
       <c r="E24">
-        <v>0.0308419618710758</v>
+        <v>1.67823485056168</v>
       </c>
       <c r="F24">
-        <v>3.178415544199282</v>
+        <v>2.637248663002822</v>
       </c>
       <c r="G24">
-        <v>0.0008237925209926459</v>
+        <v>2.825571012789908</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0004644522251788796</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.007112149989818128</v>
       </c>
       <c r="J24">
-        <v>0.07448950741336713</v>
+        <v>1.375494601055323</v>
       </c>
       <c r="K24">
-        <v>3.514359332752008</v>
+        <v>0.2862281998273088</v>
       </c>
       <c r="L24">
-        <v>0.6146619642378539</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.27224970209565</v>
+        <v>0.9951224225894464</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6870022549990082</v>
+      </c>
+      <c r="P24">
+        <v>1.374376198453604</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.451673057044104</v>
+        <v>1.62027420124403</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.009308752527370956</v>
+        <v>0.00544709371165375</v>
       </c>
       <c r="E25">
-        <v>0.02896288564696325</v>
+        <v>1.395591182193712</v>
       </c>
       <c r="F25">
-        <v>2.869833956359031</v>
+        <v>2.132733332973544</v>
       </c>
       <c r="G25">
-        <v>0.0008386440807140354</v>
+        <v>2.275411654447851</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.514963595474541E-05</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01035498935883084</v>
       </c>
       <c r="J25">
-        <v>0.07418336329787545</v>
+        <v>1.126518519932574</v>
       </c>
       <c r="K25">
-        <v>2.871981532473285</v>
+        <v>0.310949906062417</v>
       </c>
       <c r="L25">
-        <v>0.5078251625652683</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.291229475954381</v>
+        <v>0.8153051567682326</v>
       </c>
       <c r="O25">
+        <v>0.5646997821706634</v>
+      </c>
+      <c r="P25">
+        <v>1.324610756758815</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.379862365112302</v>
+        <v>1.360411557958088</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.004776559794512636</v>
+        <v>0.005107967066349417</v>
       </c>
       <c r="E2">
-        <v>1.18598990559785</v>
+        <v>1.122546979367343</v>
       </c>
       <c r="F2">
-        <v>1.78157823653477</v>
+        <v>1.769598156969877</v>
       </c>
       <c r="G2">
-        <v>1.892746797230842</v>
+        <v>1.890041497287314</v>
       </c>
       <c r="H2">
-        <v>0.0007113073558979721</v>
+        <v>0.0003836227456727181</v>
       </c>
       <c r="I2">
-        <v>0.01252471514232978</v>
+        <v>0.008665541480156413</v>
       </c>
       <c r="J2">
-        <v>0.9546294938560607</v>
+        <v>1.004082446102984</v>
       </c>
       <c r="K2">
-        <v>0.3322611566060409</v>
+        <v>0.2998347177816516</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.130904538487485</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.09661737274814741</v>
       </c>
       <c r="N2">
-        <v>0.6794267479371001</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.476004953568463</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.280159245623352</v>
+        <v>0.681464482819635</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4758828270757434</v>
+      </c>
+      <c r="R2">
+        <v>1.252038791075648</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.207766490603234</v>
+        <v>1.195532548157104</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004311774922989287</v>
+        <v>0.004754553018948116</v>
       </c>
       <c r="E3">
-        <v>1.051364142355922</v>
+        <v>0.9895749338947724</v>
       </c>
       <c r="F3">
-        <v>1.547753959915113</v>
+        <v>1.543510872857269</v>
       </c>
       <c r="G3">
-        <v>1.637447550842637</v>
+        <v>1.635265347052439</v>
       </c>
       <c r="H3">
-        <v>0.001702041697990375</v>
+        <v>0.001094544941131925</v>
       </c>
       <c r="I3">
-        <v>0.0147891811020826</v>
+        <v>0.01024271917366582</v>
       </c>
       <c r="J3">
-        <v>0.8403482114103156</v>
+        <v>0.8965072858516976</v>
       </c>
       <c r="K3">
-        <v>0.3463464660371791</v>
+        <v>0.3124234232405296</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1363241859522626</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1023536351679612</v>
       </c>
       <c r="N3">
-        <v>0.5910332488334689</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.415306202037776</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.257748134569312</v>
+        <v>0.5911700044939039</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.415848375886668</v>
+      </c>
+      <c r="R3">
+        <v>1.219842602809678</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.101418267195044</v>
+        <v>1.093283631955217</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004043958058243646</v>
+        <v>0.004542650742624943</v>
       </c>
       <c r="E4">
-        <v>0.9698390264682075</v>
+        <v>0.9090691646862012</v>
       </c>
       <c r="F4">
-        <v>1.406937349501433</v>
+        <v>1.406924904106901</v>
       </c>
       <c r="G4">
-        <v>1.483578710563307</v>
+        <v>1.48169789756156</v>
       </c>
       <c r="H4">
-        <v>0.002545901005807705</v>
+        <v>0.00173094940717311</v>
       </c>
       <c r="I4">
-        <v>0.01635095135101228</v>
+        <v>0.0113488790131866</v>
       </c>
       <c r="J4">
-        <v>0.7717454485663211</v>
+        <v>0.8311416630433257</v>
       </c>
       <c r="K4">
-        <v>0.3552939076965309</v>
+        <v>0.3204012127950557</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1399595064071892</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1062598688834475</v>
       </c>
       <c r="N4">
-        <v>0.537127581342574</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.378015094131392</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.244916260853103</v>
+        <v>0.5361639792131569</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3789156709558057</v>
+      </c>
+      <c r="R4">
+        <v>1.20123037225558</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.056431989051987</v>
+        <v>1.049992780965397</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003927557604727738</v>
+        <v>0.004446798378531014</v>
       </c>
       <c r="E5">
-        <v>0.9376657842270646</v>
+        <v>0.8772637015118434</v>
       </c>
       <c r="F5">
-        <v>1.349626222506984</v>
+        <v>1.351260974512655</v>
       </c>
       <c r="G5">
-        <v>1.420872305658889</v>
+        <v>1.419158161189131</v>
       </c>
       <c r="H5">
-        <v>0.0029470952797091</v>
+        <v>0.002038839134482107</v>
       </c>
       <c r="I5">
-        <v>0.01711998896446509</v>
+        <v>0.01193416235203415</v>
       </c>
       <c r="J5">
-        <v>0.7438176760430508</v>
+        <v>0.8043518779407179</v>
       </c>
       <c r="K5">
-        <v>0.3587981000420815</v>
+        <v>0.3235149702348954</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1413753109411253</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1079409570521728</v>
       </c>
       <c r="N5">
-        <v>0.5157663191156416</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3626976013258414</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.240933998250256</v>
+        <v>0.5143339039955492</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3637410588005494</v>
+      </c>
+      <c r="R5">
+        <v>1.194875948166526</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.04714557222519</v>
+        <v>1.041113281651377</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003894987178044929</v>
+        <v>0.004418186900609911</v>
       </c>
       <c r="E6">
-        <v>0.9333342008668382</v>
+        <v>0.8729246196538725</v>
       </c>
       <c r="F6">
-        <v>1.339495849647264</v>
+        <v>1.341445787057964</v>
       </c>
       <c r="G6">
-        <v>1.409724125471058</v>
+        <v>1.40809742789844</v>
       </c>
       <c r="H6">
-        <v>0.00301921202036004</v>
+        <v>0.002094520116079357</v>
       </c>
       <c r="I6">
-        <v>0.01736874714314407</v>
+        <v>0.01216568620754366</v>
       </c>
       <c r="J6">
-        <v>0.7388096498404764</v>
+        <v>0.7995437631168443</v>
       </c>
       <c r="K6">
-        <v>0.359123544537221</v>
+        <v>0.323795843740168</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1414422337223638</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.108217744043688</v>
       </c>
       <c r="N6">
-        <v>0.5128670950403063</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3600163358348141</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.241537855095075</v>
+        <v>0.5113108839400695</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3610930138461583</v>
+      </c>
+      <c r="R6">
+        <v>1.194999204203199</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.095863451008938</v>
+        <v>1.087621235662056</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004005635028509147</v>
+        <v>0.004425381616568913</v>
       </c>
       <c r="E7">
-        <v>0.9721389376747709</v>
+        <v>0.9092423111201384</v>
       </c>
       <c r="F7">
-        <v>1.404389660983298</v>
+        <v>1.400517540621649</v>
       </c>
       <c r="G7">
-        <v>1.480620871443392</v>
+        <v>1.483625099400371</v>
       </c>
       <c r="H7">
-        <v>0.002556531087226033</v>
+        <v>0.001743402877424693</v>
       </c>
       <c r="I7">
-        <v>0.01666816126057391</v>
+        <v>0.01170466749112009</v>
       </c>
       <c r="J7">
-        <v>0.7702999997986524</v>
+        <v>0.8173600202704279</v>
       </c>
       <c r="K7">
-        <v>0.3546339942246393</v>
+        <v>0.3197331111715878</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1394782209763115</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1062458005692752</v>
       </c>
       <c r="N7">
-        <v>0.5385990860943224</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.377432367571231</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.248310459594961</v>
+        <v>0.5366520901556413</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3779972964585525</v>
+      </c>
+      <c r="R7">
+        <v>1.204861944078587</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.314054706609141</v>
+        <v>1.296022422874444</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004563742335646381</v>
+        <v>0.004672326857701137</v>
       </c>
       <c r="E8">
-        <v>1.142964125358077</v>
+        <v>1.073284676231992</v>
       </c>
       <c r="F8">
-        <v>1.697968685464303</v>
+        <v>1.67547142804527</v>
       </c>
       <c r="G8">
-        <v>1.801248830126639</v>
+        <v>1.814777985624943</v>
       </c>
       <c r="H8">
-        <v>0.001005815630616747</v>
+        <v>0.000596116009747627</v>
       </c>
       <c r="I8">
-        <v>0.01363876734328517</v>
+        <v>0.009611378673900717</v>
       </c>
       <c r="J8">
-        <v>0.9134526399235483</v>
+        <v>0.9241589409420783</v>
       </c>
       <c r="K8">
-        <v>0.3361524988859941</v>
+        <v>0.3031379240129075</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1320967162420024</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.09838125475850712</v>
       </c>
       <c r="N8">
-        <v>0.65120828867407</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4545736390780064</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.276946417427411</v>
+        <v>0.6495534195258301</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4535038754958407</v>
+      </c>
+      <c r="R8">
+        <v>1.246887163054609</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.745580596743565</v>
+        <v>1.706701691820314</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005897543380717352</v>
+        <v>0.005566787524836414</v>
       </c>
       <c r="E9">
-        <v>1.484547606400923</v>
+        <v>1.408518437134163</v>
       </c>
       <c r="F9">
-        <v>2.303211298430782</v>
+        <v>2.253579673861537</v>
       </c>
       <c r="G9">
-        <v>2.461673261173559</v>
+        <v>2.47818415152679</v>
       </c>
       <c r="H9">
-        <v>1.221004748752641E-05</v>
+        <v>6.54696716237968E-05</v>
       </c>
       <c r="I9">
-        <v>0.008664699698107015</v>
+        <v>0.006107679224713891</v>
       </c>
       <c r="J9">
-        <v>1.210850316038517</v>
+        <v>1.186556159409577</v>
       </c>
       <c r="K9">
-        <v>0.3035707957879676</v>
+        <v>0.2739099969766059</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.120861356059335</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08621237889410427</v>
       </c>
       <c r="N9">
-        <v>0.8723736314626933</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6065430269469161</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1.334259880426472</v>
+        <v>0.8750599886898272</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.603100489472574</v>
+      </c>
+      <c r="R9">
+        <v>1.330789184589875</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.040109039103925</v>
+        <v>1.984782379471824</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.006746776975866453</v>
+        <v>0.005587199294323497</v>
       </c>
       <c r="E10">
-        <v>1.770596237018907</v>
+        <v>1.675070915647467</v>
       </c>
       <c r="F10">
-        <v>2.756083298503</v>
+        <v>2.659251796536637</v>
       </c>
       <c r="G10">
-        <v>2.95387866374287</v>
+        <v>3.002480756075897</v>
       </c>
       <c r="H10">
-        <v>0.0009273124031277113</v>
+        <v>0.001063798547341843</v>
       </c>
       <c r="I10">
-        <v>0.006218773792483923</v>
+        <v>0.004556798104436766</v>
       </c>
       <c r="J10">
-        <v>1.433126944360509</v>
+        <v>1.304287756383474</v>
       </c>
       <c r="K10">
-        <v>0.2787186432588635</v>
+        <v>0.2518236217881222</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1134669078667816</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07834348652652068</v>
       </c>
       <c r="N10">
-        <v>1.016551879898287</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7079475964902642</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1.400068037398327</v>
+        <v>1.016126539118858</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7005276937812042</v>
+      </c>
+      <c r="R10">
+        <v>1.41877557075523</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.017852177079703</v>
+        <v>1.979984699492547</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.004960247174429</v>
+        <v>0.003196197642111542</v>
       </c>
       <c r="E11">
-        <v>2.120925375074478</v>
+        <v>1.975389734376847</v>
       </c>
       <c r="F11">
-        <v>2.843603023903484</v>
+        <v>2.694277086607201</v>
       </c>
       <c r="G11">
-        <v>3.035929726958813</v>
+        <v>3.160930608566247</v>
       </c>
       <c r="H11">
-        <v>0.01960443581181082</v>
+        <v>0.01967690674945644</v>
       </c>
       <c r="I11">
-        <v>0.00632597717049066</v>
+        <v>0.004963614620359991</v>
       </c>
       <c r="J11">
-        <v>1.463457053734402</v>
+        <v>1.174789453886206</v>
       </c>
       <c r="K11">
-        <v>0.2545917236155132</v>
+        <v>0.2341093973328385</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1088620625750014</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07056934673383197</v>
       </c>
       <c r="N11">
-        <v>0.8985394276871261</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.664859731235147</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1.601300165254131</v>
+        <v>0.8787179219708889</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6546434056302459</v>
+      </c>
+      <c r="R11">
+        <v>1.617654888455107</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.944416548781476</v>
+        <v>1.925776265943227</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.003587295617609954</v>
+        <v>0.001852940548294768</v>
       </c>
       <c r="E12">
-        <v>2.371017437958216</v>
+        <v>2.190682031817389</v>
       </c>
       <c r="F12">
-        <v>2.821259894197425</v>
+        <v>2.653188173024233</v>
       </c>
       <c r="G12">
-        <v>3.001229201353226</v>
+        <v>3.165418401355907</v>
       </c>
       <c r="H12">
-        <v>0.0582152610944604</v>
+        <v>0.05826027970260839</v>
       </c>
       <c r="I12">
-        <v>0.006337598686187107</v>
+        <v>0.00499211216531581</v>
       </c>
       <c r="J12">
-        <v>1.441950058145778</v>
+        <v>1.088087061171564</v>
       </c>
       <c r="K12">
-        <v>0.248541815355658</v>
+        <v>0.2308258846683877</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1094376863864852</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06786946527914384</v>
       </c>
       <c r="N12">
-        <v>0.7739135875170575</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6091848260431263</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1.771786832666947</v>
+        <v>0.7436154574247382</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5988730494433483</v>
+      </c>
+      <c r="R12">
+        <v>1.775266579549651</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.820164807215548</v>
+        <v>1.824817470688288</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.002376033033090863</v>
+        <v>0.001077925113158074</v>
       </c>
       <c r="E13">
-        <v>2.558877187374222</v>
+        <v>2.362331398959412</v>
       </c>
       <c r="F13">
-        <v>2.708119762097652</v>
+        <v>2.557044019438905</v>
       </c>
       <c r="G13">
-        <v>2.869092154833652</v>
+        <v>3.033485159395696</v>
       </c>
       <c r="H13">
-        <v>0.1137442572117493</v>
+        <v>0.1137959478964916</v>
       </c>
       <c r="I13">
-        <v>0.006710432337032834</v>
+        <v>0.005227666739618719</v>
       </c>
       <c r="J13">
-        <v>1.37652086215715</v>
+        <v>1.050879806561341</v>
       </c>
       <c r="K13">
-        <v>0.2545161497837025</v>
+        <v>0.2364154113210581</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1124171646125909</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.068846044096738</v>
       </c>
       <c r="N13">
-        <v>0.640685137567985</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5404564385084143</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.931267178696942</v>
+        <v>0.607022437724865</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5327678176860005</v>
+      </c>
+      <c r="R13">
+        <v>1.909788624322204</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.709611445188472</v>
+        <v>1.732028611122047</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.001635131958144243</v>
+        <v>0.0007221301399473745</v>
       </c>
       <c r="E14">
-        <v>2.664283136680154</v>
+        <v>2.465371999728475</v>
       </c>
       <c r="F14">
-        <v>2.587932166637501</v>
+        <v>2.463852640847065</v>
       </c>
       <c r="G14">
-        <v>2.732678736923646</v>
+        <v>2.880792512843982</v>
       </c>
       <c r="H14">
-        <v>0.1628912290209286</v>
+        <v>0.1629559502012654</v>
       </c>
       <c r="I14">
-        <v>0.007240382096036058</v>
+        <v>0.005602028298729245</v>
       </c>
       <c r="J14">
-        <v>1.310893246510176</v>
+        <v>1.04428142256279</v>
       </c>
       <c r="K14">
-        <v>0.2650968836804353</v>
+        <v>0.24465810725032</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1154244826746442</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.07160153330324626</v>
       </c>
       <c r="N14">
-        <v>0.5460849864966235</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.487070091470386</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>2.040472249502557</v>
+        <v>0.5127776156028574</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4821977558843713</v>
+      </c>
+      <c r="R14">
+        <v>1.995013192995657</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.670342205108341</v>
+        <v>1.697880050113525</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.001449365543750858</v>
+        <v>0.0006717986304343171</v>
       </c>
       <c r="E15">
-        <v>2.675200634344776</v>
+        <v>2.479991170075877</v>
       </c>
       <c r="F15">
-        <v>2.539152906766418</v>
+        <v>2.428162667514641</v>
       </c>
       <c r="G15">
-        <v>2.678438550260978</v>
+        <v>2.815732198307359</v>
       </c>
       <c r="H15">
-        <v>0.1753096303877868</v>
+        <v>0.1753793777642443</v>
       </c>
       <c r="I15">
-        <v>0.00759454995223674</v>
+        <v>0.005901141821312628</v>
       </c>
       <c r="J15">
-        <v>1.285436314093829</v>
+        <v>1.050220226050243</v>
       </c>
       <c r="K15">
-        <v>0.2693157386376246</v>
+        <v>0.2477695864540639</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1162376070300528</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.07290590214536152</v>
       </c>
       <c r="N15">
-        <v>0.5208733077411125</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4711009399613673</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>2.063821925502197</v>
+        <v>0.4885580901107431</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4673554254388321</v>
+      </c>
+      <c r="R15">
+        <v>2.010353608396031</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.569687872645886</v>
+        <v>1.603092738409316</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.001279809791538966</v>
+        <v>0.0009753951688562523</v>
       </c>
       <c r="E16">
-        <v>2.505726589027262</v>
+        <v>2.348259798613071</v>
       </c>
       <c r="F16">
-        <v>2.362531584022904</v>
+        <v>2.305594216414448</v>
       </c>
       <c r="G16">
-        <v>2.488599143614067</v>
+        <v>2.568910718580042</v>
       </c>
       <c r="H16">
-        <v>0.1621485452745191</v>
+        <v>0.1622115386107623</v>
       </c>
       <c r="I16">
-        <v>0.008753587645305316</v>
+        <v>0.006707813753894065</v>
       </c>
       <c r="J16">
-        <v>1.200565873864065</v>
+        <v>1.108963116830608</v>
       </c>
       <c r="K16">
-        <v>0.2773077448827443</v>
+        <v>0.2531992718484499</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1153692405780653</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07688615024701662</v>
       </c>
       <c r="N16">
-        <v>0.4907114922888809</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4432853161354515</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.996991254355777</v>
+        <v>0.4660536349289259</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4433138985140488</v>
+      </c>
+      <c r="R16">
+        <v>1.930699252759524</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.550415458476976</v>
+        <v>1.578462109417899</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.001529207640384556</v>
+        <v>0.001445959675256958</v>
       </c>
       <c r="E17">
-        <v>2.320258278850602</v>
+        <v>2.187233463427745</v>
       </c>
       <c r="F17">
-        <v>2.292135022272703</v>
+        <v>2.256000304462034</v>
       </c>
       <c r="G17">
-        <v>2.416686926256148</v>
+        <v>2.469228041837709</v>
       </c>
       <c r="H17">
-        <v>0.1241924362327751</v>
+        <v>0.1242281769212923</v>
       </c>
       <c r="I17">
-        <v>0.009390982870989717</v>
+        <v>0.007161494894557308</v>
       </c>
       <c r="J17">
-        <v>1.170966137725429</v>
+        <v>1.141467877937203</v>
       </c>
       <c r="K17">
-        <v>0.2773345092864936</v>
+        <v>0.2532646441609376</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1137321195299776</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.07815754809739772</v>
       </c>
       <c r="N17">
-        <v>0.5165227202434011</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4497929263171088</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.887925134280465</v>
+        <v>0.4969765497802854</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4509231708770542</v>
+      </c>
+      <c r="R17">
+        <v>1.826949632046336</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.603212184874621</v>
+        <v>1.616306043029169</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.002305407386190339</v>
+        <v>0.002301230563356071</v>
       </c>
       <c r="E18">
-        <v>2.104245885327956</v>
+        <v>1.992305462825328</v>
       </c>
       <c r="F18">
-        <v>2.304239578174247</v>
+        <v>2.272409804001356</v>
       </c>
       <c r="G18">
-        <v>2.437437294383216</v>
+        <v>2.472471202959383</v>
       </c>
       <c r="H18">
-        <v>0.07133793858026394</v>
+        <v>0.07136471130357336</v>
       </c>
       <c r="I18">
-        <v>0.009249036420555079</v>
+        <v>0.006932161520671443</v>
       </c>
       <c r="J18">
-        <v>1.18519626468867</v>
+        <v>1.180057432191632</v>
       </c>
       <c r="K18">
-        <v>0.274154486384977</v>
+        <v>0.2511602658004382</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1122585319892142</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.07793041902576237</v>
       </c>
       <c r="N18">
-        <v>0.5969225862827869</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4879117943409526</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1.734390500592085</v>
+        <v>0.5830808420478775</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.48866480320779</v>
+      </c>
+      <c r="R18">
+        <v>1.691169009824733</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.702497098133051</v>
+        <v>1.694426745529825</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.003611390606106823</v>
+        <v>0.003548831958015697</v>
       </c>
       <c r="E19">
-        <v>1.897303137608148</v>
+        <v>1.80276471105239</v>
       </c>
       <c r="F19">
-        <v>2.378037417797117</v>
+        <v>2.340934140331541</v>
       </c>
       <c r="G19">
-        <v>2.527154123492124</v>
+        <v>2.549848088603142</v>
       </c>
       <c r="H19">
-        <v>0.02618076790796664</v>
+        <v>0.02623412342091314</v>
       </c>
       <c r="I19">
-        <v>0.009052777390956557</v>
+        <v>0.006850288976565366</v>
       </c>
       <c r="J19">
-        <v>1.23147012416436</v>
+        <v>1.229489942090964</v>
       </c>
       <c r="K19">
-        <v>0.2747441829206239</v>
+        <v>0.2516157588927359</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1124520627388428</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07813630278723871</v>
       </c>
       <c r="N19">
-        <v>0.7259872553046307</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5501192286643075</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>1.578298461777749</v>
+        <v>0.7190885938884435</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5495311434323824</v>
+      </c>
+      <c r="R19">
+        <v>1.556533620179309</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.946495605153927</v>
+        <v>1.898926939324184</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.006387030007790173</v>
+        <v>0.005740974276355004</v>
       </c>
       <c r="E20">
-        <v>1.704311008685622</v>
+        <v>1.620920996773762</v>
       </c>
       <c r="F20">
-        <v>2.629052511616692</v>
+        <v>2.560572505652715</v>
       </c>
       <c r="G20">
-        <v>2.815183831117253</v>
+        <v>2.8383608290344</v>
       </c>
       <c r="H20">
-        <v>0.0005526117022132127</v>
+        <v>0.0006938149892152801</v>
       </c>
       <c r="I20">
-        <v>0.0076982582958669</v>
+        <v>0.005949444679403726</v>
       </c>
       <c r="J20">
-        <v>1.370012488352472</v>
+        <v>1.314393249231188</v>
       </c>
       <c r="K20">
-        <v>0.2831891569063281</v>
+        <v>0.2561938350406381</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1147907558545145</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07978552149804585</v>
       </c>
       <c r="N20">
-        <v>0.983119508691658</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6796552190270404</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1.395099707443265</v>
+        <v>0.9862513535618689</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6747699798634699</v>
+      </c>
+      <c r="R20">
+        <v>1.40527760881605</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.20107439188655</v>
+        <v>2.125031894234098</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.007558629981513576</v>
+        <v>0.004798347517832369</v>
       </c>
       <c r="E21">
-        <v>1.891885358591708</v>
+        <v>1.756051691528057</v>
       </c>
       <c r="F21">
-        <v>3.009059612920879</v>
+        <v>2.820427348703163</v>
       </c>
       <c r="G21">
-        <v>3.230566158553302</v>
+        <v>3.370819715078937</v>
       </c>
       <c r="H21">
-        <v>0.001656205418946732</v>
+        <v>0.00170425872190838</v>
       </c>
       <c r="I21">
-        <v>0.005847913745316013</v>
+        <v>0.00476696005558086</v>
       </c>
       <c r="J21">
-        <v>1.559381596574411</v>
+        <v>1.190575201480954</v>
       </c>
       <c r="K21">
-        <v>0.2685068766905392</v>
+        <v>0.241623584450736</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1104795516535422</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0749373470382757</v>
       </c>
       <c r="N21">
-        <v>1.12823464882959</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7738864499164251</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1.418753751126644</v>
+        <v>1.113852661930849</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7580796164602646</v>
+      </c>
+      <c r="R21">
+        <v>1.460679687107543</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.365022952506422</v>
+        <v>2.270100574879507</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0082837481739233</v>
+        <v>0.004123214256614105</v>
       </c>
       <c r="E22">
-        <v>2.025848975369527</v>
+        <v>1.851140485050891</v>
       </c>
       <c r="F22">
-        <v>3.259495718965923</v>
+        <v>2.983772670445063</v>
       </c>
       <c r="G22">
-        <v>3.503785377880718</v>
+        <v>3.732057825031461</v>
       </c>
       <c r="H22">
-        <v>0.002807610627907686</v>
+        <v>0.002690886781928747</v>
       </c>
       <c r="I22">
-        <v>0.004542196166263501</v>
+        <v>0.003764833365739406</v>
       </c>
       <c r="J22">
-        <v>1.683990031325919</v>
+        <v>1.100157373131907</v>
       </c>
       <c r="K22">
-        <v>0.2589145402826256</v>
+        <v>0.2321583848323723</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1079054026987512</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07199726218469493</v>
       </c>
       <c r="N22">
-        <v>1.210300027170973</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8308993329820424</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1.438774930723113</v>
+        <v>1.182280075804698</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8072310552421058</v>
+      </c>
+      <c r="R22">
+        <v>1.502128699836177</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.283580016257758</v>
+        <v>2.19960056669936</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.007933698832729874</v>
+        <v>0.004676144069410526</v>
       </c>
       <c r="E23">
-        <v>1.950626213522298</v>
+        <v>1.802486804088787</v>
       </c>
       <c r="F23">
-        <v>3.127283615132171</v>
+        <v>2.909196228547017</v>
       </c>
       <c r="G23">
-        <v>3.359762683253706</v>
+        <v>3.527042607684024</v>
       </c>
       <c r="H23">
-        <v>0.002160192635274893</v>
+        <v>0.002150825381516897</v>
       </c>
       <c r="I23">
-        <v>0.00487902618731173</v>
+        <v>0.003881149824739083</v>
       </c>
       <c r="J23">
-        <v>1.618395428436315</v>
+        <v>1.178328295432635</v>
       </c>
       <c r="K23">
-        <v>0.2647044589867633</v>
+        <v>0.237761576716883</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1093864489387504</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.0738414036913051</v>
       </c>
       <c r="N23">
-        <v>1.164288771283367</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8009227693724483</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>1.423415837523876</v>
+        <v>1.146140621501075</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7824493090062887</v>
+      </c>
+      <c r="R23">
+        <v>1.473755760539959</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.964889954660748</v>
+        <v>1.914198226971422</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.006649858007801157</v>
+        <v>0.005990093920587469</v>
       </c>
       <c r="E24">
-        <v>1.67823485056168</v>
+        <v>1.596895346184198</v>
       </c>
       <c r="F24">
-        <v>2.637248663002822</v>
+        <v>2.568590856212552</v>
       </c>
       <c r="G24">
-        <v>2.825571012789908</v>
+        <v>2.846345179389232</v>
       </c>
       <c r="H24">
-        <v>0.0004644522251788796</v>
+        <v>0.0006102864139994058</v>
       </c>
       <c r="I24">
-        <v>0.007112149989818128</v>
+        <v>0.005278784412249493</v>
       </c>
       <c r="J24">
-        <v>1.375494601055323</v>
+        <v>1.321928828630007</v>
       </c>
       <c r="K24">
-        <v>0.2862281998273088</v>
+        <v>0.2584041495039706</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1155798335411875</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08065625169906454</v>
       </c>
       <c r="N24">
-        <v>0.9951224225894464</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6870022549990082</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1.374376198453604</v>
+        <v>0.9995829991294158</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6819340196848103</v>
+      </c>
+      <c r="R24">
+        <v>1.385906891033599</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.62027420124403</v>
+        <v>1.588812558176784</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.00544709371165375</v>
+        <v>0.005369680629822682</v>
       </c>
       <c r="E25">
-        <v>1.395591182193712</v>
+        <v>1.323954410773425</v>
       </c>
       <c r="F25">
-        <v>2.132733332973544</v>
+        <v>2.097224508063462</v>
       </c>
       <c r="G25">
-        <v>2.275411654447851</v>
+        <v>2.284575920088031</v>
       </c>
       <c r="H25">
-        <v>3.514963595474541E-05</v>
+        <v>2.869393214144367E-07</v>
       </c>
       <c r="I25">
-        <v>0.01035498935883084</v>
+        <v>0.007501570609015573</v>
       </c>
       <c r="J25">
-        <v>1.126518519932574</v>
+        <v>1.130739609205023</v>
       </c>
       <c r="K25">
-        <v>0.310949906062417</v>
+        <v>0.2807274406283415</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1232356543429587</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08892123730582657</v>
       </c>
       <c r="N25">
-        <v>0.8153051567682326</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5646997821706634</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1.324610756758815</v>
+        <v>0.8178021002793798</v>
       </c>
       <c r="Q25">
+        <v>0.5625418187036573</v>
+      </c>
+      <c r="R25">
+        <v>1.312673820170019</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
